--- a/Data/Full_data_ML2.xlsx
+++ b/Data/Full_data_ML2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinmacartney/Documents/EE_stress_MA/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69E1D85-1333-A14A-ADD7-1E669C36DA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3D8B7E-C211-6945-988D-FCD53DC5F1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -879,9 +879,6 @@
     <t>count</t>
   </si>
   <si>
-    <t>PND7 - only take white bars of habituation</t>
-  </si>
-  <si>
     <t>Fig. 2</t>
   </si>
   <si>
@@ -891,9 +888,6 @@
     <t>Need to double check response direction</t>
   </si>
   <si>
-    <t>PND15 - only take white bars of habituation</t>
-  </si>
-  <si>
     <t>CC = ct15d, EC = ctEE15d, CS = Noise15d, ES = NoiseEE15d</t>
   </si>
   <si>
@@ -1579,13 +1573,19 @@
   </si>
   <si>
     <t>Stats_comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PND7 - ratio between first and second </t>
+  </si>
+  <si>
+    <t>PND15 - ratio between first and second</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1593,6 +1593,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -1879,7 +1885,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1988,13 +1994,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -12177,8 +12180,11 @@
   </sheetPr>
   <dimension ref="A1:BW97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AF16" workbookViewId="0">
-      <selection activeCell="AI26" sqref="AI26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="AG19" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AI37" sqref="AI37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12482,7 +12488,7 @@
         <v>73</v>
       </c>
       <c r="BW1" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:75" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17249,363 +17255,315 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:75" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8">
+    <row r="28" spans="1:75" s="36" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="36">
         <v>10</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="36">
         <v>2016</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="36">
         <v>27</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="10">
-        <v>2</v>
-      </c>
-      <c r="I28" s="10">
-        <v>3</v>
-      </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="10">
-        <v>2</v>
-      </c>
-      <c r="L28" s="10">
-        <v>2</v>
-      </c>
-      <c r="M28" s="12"/>
-      <c r="N28" s="10">
-        <v>2</v>
-      </c>
-      <c r="O28" s="10">
-        <v>2</v>
-      </c>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="10">
-        <v>3</v>
-      </c>
-      <c r="R28" s="10">
-        <v>2</v>
-      </c>
-      <c r="S28" s="11" t="s">
+      <c r="H28" s="36">
+        <v>2</v>
+      </c>
+      <c r="I28" s="36">
+        <v>3</v>
+      </c>
+      <c r="K28" s="36">
+        <v>2</v>
+      </c>
+      <c r="L28" s="36">
+        <v>2</v>
+      </c>
+      <c r="N28" s="36">
+        <v>2</v>
+      </c>
+      <c r="O28" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="36">
+        <v>3</v>
+      </c>
+      <c r="R28" s="36">
+        <v>2</v>
+      </c>
+      <c r="S28" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="T28" s="10">
+      <c r="T28" s="36">
         <v>5</v>
       </c>
-      <c r="U28" s="11" t="s">
+      <c r="U28" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="V28" s="10">
-        <v>1</v>
-      </c>
-      <c r="W28" s="10">
-        <v>2</v>
-      </c>
-      <c r="X28" s="10">
+      <c r="V28" s="36">
+        <v>1</v>
+      </c>
+      <c r="W28" s="36">
+        <v>2</v>
+      </c>
+      <c r="X28" s="36">
         <v>8</v>
       </c>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="10">
-        <v>3</v>
-      </c>
-      <c r="AC28" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD28" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF28" s="11" t="s">
+      <c r="Z28" s="36">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="36">
+        <v>3</v>
+      </c>
+      <c r="AC28" s="36">
+        <v>3</v>
+      </c>
+      <c r="AD28" s="36">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="36">
+        <v>3</v>
+      </c>
+      <c r="AF28" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="AG28" s="11" t="s">
+      <c r="AG28" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="AH28" s="11" t="s">
+      <c r="AH28" s="36" t="s">
         <v>221</v>
       </c>
       <c r="AI28" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="AJ28" s="36">
+        <v>3</v>
+      </c>
+      <c r="AK28" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="AJ28" s="36">
-        <v>3</v>
-      </c>
-      <c r="AK28" s="37" t="s">
+      <c r="AL28" s="36">
+        <v>6</v>
+      </c>
+      <c r="AM28" s="36">
+        <v>75.62</v>
+      </c>
+      <c r="AO28" s="36">
+        <v>30.23</v>
+      </c>
+      <c r="AP28" s="36">
+        <v>12.34</v>
+      </c>
+      <c r="AS28" s="36">
+        <v>6</v>
+      </c>
+      <c r="AT28" s="36">
+        <v>102.37</v>
+      </c>
+      <c r="AV28" s="36">
+        <v>26.45</v>
+      </c>
+      <c r="AW28" s="36">
+        <v>10.8</v>
+      </c>
+      <c r="AZ28" s="36">
+        <v>6</v>
+      </c>
+      <c r="BA28" s="36">
+        <v>74.59</v>
+      </c>
+      <c r="BC28" s="36">
+        <v>12.59</v>
+      </c>
+      <c r="BD28" s="36">
+        <v>5.14</v>
+      </c>
+      <c r="BG28" s="36">
+        <v>6</v>
+      </c>
+      <c r="BH28" s="36">
+        <v>107</v>
+      </c>
+      <c r="BJ28" s="36">
+        <v>23.93</v>
+      </c>
+      <c r="BK28" s="36">
+        <v>9.77</v>
+      </c>
+      <c r="BN28" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="AL28" s="10">
+      <c r="BO28" s="36">
+        <v>3</v>
+      </c>
+      <c r="BQ28" s="36">
+        <v>1</v>
+      </c>
+      <c r="BV28" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:75" s="36" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="36">
+        <v>10</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" s="36">
+        <v>2016</v>
+      </c>
+      <c r="D29" s="36">
+        <v>28</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="36">
+        <v>2</v>
+      </c>
+      <c r="I29" s="36">
+        <v>3</v>
+      </c>
+      <c r="K29" s="36">
+        <v>2</v>
+      </c>
+      <c r="L29" s="36">
+        <v>2</v>
+      </c>
+      <c r="N29" s="36">
+        <v>2</v>
+      </c>
+      <c r="O29" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="36">
+        <v>3</v>
+      </c>
+      <c r="R29" s="36">
+        <v>2</v>
+      </c>
+      <c r="S29" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="T29" s="36">
+        <v>5</v>
+      </c>
+      <c r="U29" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="V29" s="36">
+        <v>1</v>
+      </c>
+      <c r="W29" s="36">
+        <v>2</v>
+      </c>
+      <c r="X29" s="36">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="36">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="36">
+        <v>3</v>
+      </c>
+      <c r="AC29" s="36">
+        <v>3</v>
+      </c>
+      <c r="AD29" s="36">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="36">
+        <v>3</v>
+      </c>
+      <c r="AF29" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG29" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH29" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI29" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="AJ29" s="36">
+        <v>3</v>
+      </c>
+      <c r="AK29" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL29" s="36">
         <v>6</v>
       </c>
-      <c r="AM28" s="10">
-        <v>75.62</v>
-      </c>
-      <c r="AN28" s="12"/>
-      <c r="AO28" s="10">
-        <v>30.23</v>
-      </c>
-      <c r="AP28" s="10">
-        <v>12.34</v>
-      </c>
-      <c r="AQ28" s="12"/>
-      <c r="AR28" s="12"/>
-      <c r="AS28" s="10">
+      <c r="AM29" s="36">
+        <v>111.11</v>
+      </c>
+      <c r="AO29" s="36">
+        <v>26.45</v>
+      </c>
+      <c r="AP29" s="36">
+        <v>10.8</v>
+      </c>
+      <c r="AS29" s="36">
         <v>6</v>
       </c>
-      <c r="AT28" s="10">
-        <v>102.37</v>
-      </c>
-      <c r="AU28" s="12"/>
-      <c r="AV28" s="10">
-        <v>26.45</v>
-      </c>
-      <c r="AW28" s="10">
-        <v>10.8</v>
-      </c>
-      <c r="AX28" s="12"/>
-      <c r="AY28" s="12"/>
-      <c r="AZ28" s="10">
+      <c r="AT29" s="36">
+        <v>96.19</v>
+      </c>
+      <c r="AV29" s="36">
+        <v>8.82</v>
+      </c>
+      <c r="AW29" s="36">
+        <v>3.6</v>
+      </c>
+      <c r="AZ29" s="36">
         <v>6</v>
       </c>
-      <c r="BA28" s="10">
-        <v>74.59</v>
-      </c>
-      <c r="BB28" s="12"/>
-      <c r="BC28" s="10">
-        <v>12.59</v>
-      </c>
-      <c r="BD28" s="10">
-        <v>5.14</v>
-      </c>
-      <c r="BE28" s="12"/>
-      <c r="BF28" s="12"/>
-      <c r="BG28" s="10">
+      <c r="BA29" s="36">
+        <v>109.57</v>
+      </c>
+      <c r="BC29" s="36">
+        <v>21.41</v>
+      </c>
+      <c r="BD29" s="36">
+        <v>8.74</v>
+      </c>
+      <c r="BG29" s="36">
         <v>6</v>
       </c>
-      <c r="BH28" s="10">
-        <v>107</v>
-      </c>
-      <c r="BI28" s="12"/>
-      <c r="BJ28" s="10">
-        <v>23.93</v>
-      </c>
-      <c r="BK28" s="10">
-        <v>9.77</v>
-      </c>
-      <c r="BL28" s="12"/>
-      <c r="BM28" s="12"/>
-      <c r="BN28" s="11" t="s">
+      <c r="BH29" s="36">
+        <v>80.760000000000005</v>
+      </c>
+      <c r="BJ29" s="36">
+        <v>8.82</v>
+      </c>
+      <c r="BK29" s="36">
+        <v>3.6</v>
+      </c>
+      <c r="BN29" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="BO29" s="36">
+        <v>3</v>
+      </c>
+      <c r="BQ29" s="36">
+        <v>1</v>
+      </c>
+      <c r="BV29" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="BO28" s="10">
-        <v>3</v>
-      </c>
-      <c r="BP28" s="12"/>
-      <c r="BQ28" s="10">
-        <v>1</v>
-      </c>
-      <c r="BR28" s="12"/>
-      <c r="BS28" s="12"/>
-      <c r="BT28" s="12"/>
-      <c r="BU28" s="12"/>
-      <c r="BV28" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="BW28" s="12"/>
-    </row>
-    <row r="29" spans="1:75" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8">
-        <v>10</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C29" s="10">
-        <v>2016</v>
-      </c>
-      <c r="D29" s="10">
-        <v>28</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="10">
-        <v>2</v>
-      </c>
-      <c r="I29" s="10">
-        <v>3</v>
-      </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="10">
-        <v>2</v>
-      </c>
-      <c r="L29" s="10">
-        <v>2</v>
-      </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="10">
-        <v>2</v>
-      </c>
-      <c r="O29" s="10">
-        <v>2</v>
-      </c>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="10">
-        <v>3</v>
-      </c>
-      <c r="R29" s="10">
-        <v>2</v>
-      </c>
-      <c r="S29" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="T29" s="10">
-        <v>5</v>
-      </c>
-      <c r="U29" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="V29" s="10">
-        <v>1</v>
-      </c>
-      <c r="W29" s="10">
-        <v>2</v>
-      </c>
-      <c r="X29" s="10">
-        <v>8</v>
-      </c>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="10">
-        <v>3</v>
-      </c>
-      <c r="AC29" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD29" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF29" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG29" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH29" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI29" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="AJ29" s="36">
-        <v>3</v>
-      </c>
-      <c r="AK29" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="AL29" s="10">
-        <v>6</v>
-      </c>
-      <c r="AM29" s="10">
-        <v>111.11</v>
-      </c>
-      <c r="AN29" s="12"/>
-      <c r="AO29" s="10">
-        <v>26.45</v>
-      </c>
-      <c r="AP29" s="10">
-        <v>10.8</v>
-      </c>
-      <c r="AQ29" s="12"/>
-      <c r="AR29" s="12"/>
-      <c r="AS29" s="10">
-        <v>6</v>
-      </c>
-      <c r="AT29" s="10">
-        <v>96.19</v>
-      </c>
-      <c r="AU29" s="12"/>
-      <c r="AV29" s="10">
-        <v>8.82</v>
-      </c>
-      <c r="AW29" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="AX29" s="12"/>
-      <c r="AY29" s="12"/>
-      <c r="AZ29" s="10">
-        <v>6</v>
-      </c>
-      <c r="BA29" s="10">
-        <v>109.57</v>
-      </c>
-      <c r="BB29" s="12"/>
-      <c r="BC29" s="10">
-        <v>21.41</v>
-      </c>
-      <c r="BD29" s="10">
-        <v>8.74</v>
-      </c>
-      <c r="BE29" s="12"/>
-      <c r="BF29" s="12"/>
-      <c r="BG29" s="10">
-        <v>6</v>
-      </c>
-      <c r="BH29" s="10">
-        <v>80.760000000000005</v>
-      </c>
-      <c r="BI29" s="12"/>
-      <c r="BJ29" s="10">
-        <v>8.82</v>
-      </c>
-      <c r="BK29" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="BL29" s="12"/>
-      <c r="BM29" s="12"/>
-      <c r="BN29" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="BO29" s="10">
-        <v>3</v>
-      </c>
-      <c r="BP29" s="12"/>
-      <c r="BQ29" s="10">
-        <v>1</v>
-      </c>
-      <c r="BR29" s="12"/>
-      <c r="BS29" s="12"/>
-      <c r="BT29" s="12"/>
-      <c r="BU29" s="12"/>
-      <c r="BV29" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="BW29" s="12"/>
     </row>
     <row r="30" spans="1:75" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
@@ -17693,19 +17651,19 @@
         <v>177</v>
       </c>
       <c r="AG30" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH30" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI30" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="AH30" s="11" t="s">
+      <c r="AJ30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="11" t="s">
         <v>229</v>
-      </c>
-      <c r="AI30" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ30" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK30" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="AL30" s="10">
         <v>6</v>
@@ -17768,7 +17726,7 @@
       <c r="BL30" s="12"/>
       <c r="BM30" s="12"/>
       <c r="BN30" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BO30" s="10">
         <v>3</v>
@@ -17870,19 +17828,19 @@
         <v>177</v>
       </c>
       <c r="AG31" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AH31" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI31" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="11" t="s">
         <v>229</v>
-      </c>
-      <c r="AI31" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AJ31" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK31" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="AL31" s="10">
         <v>6</v>
@@ -17945,7 +17903,7 @@
       <c r="BL31" s="12"/>
       <c r="BM31" s="12"/>
       <c r="BN31" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="BO31" s="10">
         <v>3</v>
@@ -17966,7 +17924,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C32" s="10">
         <v>2018</v>
@@ -18013,7 +17971,7 @@
         <v>5</v>
       </c>
       <c r="U32" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="V32" s="10">
         <v>1</v>
@@ -18045,19 +18003,19 @@
         <v>82</v>
       </c>
       <c r="AG32" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AH32" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI32" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AJ32" s="10">
         <v>2</v>
       </c>
       <c r="AK32" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AL32" s="10">
         <v>6</v>
@@ -18112,7 +18070,7 @@
       <c r="BL32" s="12"/>
       <c r="BM32" s="12"/>
       <c r="BN32" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="BO32" s="10">
         <v>3</v>
@@ -18133,7 +18091,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C33" s="10">
         <v>2018</v>
@@ -18180,7 +18138,7 @@
         <v>5</v>
       </c>
       <c r="U33" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="V33" s="10">
         <v>1</v>
@@ -18212,19 +18170,19 @@
         <v>82</v>
       </c>
       <c r="AG33" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AH33" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI33" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AJ33" s="10">
         <v>2</v>
       </c>
       <c r="AK33" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL33" s="10">
         <v>6</v>
@@ -18279,7 +18237,7 @@
       <c r="BL33" s="12"/>
       <c r="BM33" s="12"/>
       <c r="BN33" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="BO33" s="10">
         <v>3</v>
@@ -18300,7 +18258,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C34" s="10">
         <v>2021</v>
@@ -18347,7 +18305,7 @@
         <v>2</v>
       </c>
       <c r="U34" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V34" s="10">
         <v>2</v>
@@ -18376,16 +18334,16 @@
         <v>2</v>
       </c>
       <c r="AF34" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG34" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH34" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="AG34" s="11" t="s">
+      <c r="AI34" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="AH34" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="AI34" s="11" t="s">
-        <v>245</v>
       </c>
       <c r="AJ34" s="10">
         <v>1</v>
@@ -18454,7 +18412,7 @@
       <c r="BL34" s="12"/>
       <c r="BM34" s="12"/>
       <c r="BN34" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="BO34" s="10">
         <v>1</v>
@@ -18464,7 +18422,7 @@
         <v>3</v>
       </c>
       <c r="BR34" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="BS34" s="12"/>
       <c r="BT34" s="12"/>
@@ -18477,7 +18435,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C35" s="10">
         <v>2021</v>
@@ -18524,7 +18482,7 @@
         <v>2</v>
       </c>
       <c r="U35" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V35" s="10">
         <v>2</v>
@@ -18553,13 +18511,13 @@
         <v>2</v>
       </c>
       <c r="AF35" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG35" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH35" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="AG35" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH35" s="11" t="s">
-        <v>244</v>
       </c>
       <c r="AI35" s="12"/>
       <c r="AJ35" s="10">
@@ -18629,7 +18587,7 @@
       <c r="BL35" s="12"/>
       <c r="BM35" s="12"/>
       <c r="BN35" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="BO35" s="10">
         <v>1</v>
@@ -18639,7 +18597,7 @@
         <v>3</v>
       </c>
       <c r="BR35" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="BS35" s="12"/>
       <c r="BT35" s="12"/>
@@ -18652,7 +18610,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C36" s="10">
         <v>2016</v>
@@ -18664,7 +18622,7 @@
         <v>75</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="10">
@@ -18699,7 +18657,7 @@
         <v>5</v>
       </c>
       <c r="U36" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="V36" s="10">
         <v>1</v>
@@ -18731,7 +18689,7 @@
         <v>82</v>
       </c>
       <c r="AG36" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AH36" s="11" t="s">
         <v>84</v>
@@ -18804,7 +18762,7 @@
       <c r="BL36" s="12"/>
       <c r="BM36" s="12"/>
       <c r="BN36" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="BO36" s="10">
         <v>1</v>
@@ -18825,7 +18783,7 @@
         <v>14</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C37" s="10">
         <v>2020</v>
@@ -18837,10 +18795,10 @@
         <v>111</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H37" s="10">
         <v>2</v>
@@ -18874,7 +18832,7 @@
         <v>6</v>
       </c>
       <c r="U37" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="V37" s="10">
         <v>2</v>
@@ -18886,7 +18844,7 @@
         <v>9</v>
       </c>
       <c r="Y37" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Z37" s="10">
         <v>2</v>
@@ -18905,10 +18863,10 @@
         <v>3</v>
       </c>
       <c r="AF37" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AG37" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AH37" s="11" t="s">
         <v>120</v>
@@ -18918,7 +18876,7 @@
         <v>1</v>
       </c>
       <c r="AK37" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AL37" s="10">
         <v>13</v>
@@ -18973,26 +18931,26 @@
       <c r="BL37" s="12"/>
       <c r="BM37" s="12"/>
       <c r="BN37" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BO37" s="10">
         <v>3</v>
       </c>
       <c r="BP37" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BQ37" s="31">
         <v>3</v>
       </c>
       <c r="BR37" s="12"/>
       <c r="BS37" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="BT37" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="BU37" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="BT37" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="BU37" s="11" t="s">
-        <v>266</v>
       </c>
       <c r="BV37" s="12"/>
       <c r="BW37" s="12"/>
@@ -19002,7 +18960,7 @@
         <v>14</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C38" s="10">
         <v>2020</v>
@@ -19014,10 +18972,10 @@
         <v>111</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H38" s="10">
         <v>2</v>
@@ -19051,7 +19009,7 @@
         <v>6</v>
       </c>
       <c r="U38" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="V38" s="10">
         <v>2</v>
@@ -19063,7 +19021,7 @@
         <v>9</v>
       </c>
       <c r="Y38" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Z38" s="10">
         <v>2</v>
@@ -19082,10 +19040,10 @@
         <v>3</v>
       </c>
       <c r="AF38" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AG38" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AH38" s="11" t="s">
         <v>120</v>
@@ -19095,7 +19053,7 @@
         <v>1</v>
       </c>
       <c r="AK38" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AL38" s="10">
         <v>13</v>
@@ -19150,26 +19108,26 @@
       <c r="BL38" s="12"/>
       <c r="BM38" s="12"/>
       <c r="BN38" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BO38" s="10">
         <v>3</v>
       </c>
       <c r="BP38" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BQ38" s="31">
         <v>3</v>
       </c>
       <c r="BR38" s="12"/>
       <c r="BS38" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="BT38" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="BU38" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="BT38" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="BU38" s="11" t="s">
-        <v>266</v>
       </c>
       <c r="BV38" s="12"/>
       <c r="BW38" s="12"/>
@@ -19179,7 +19137,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C39" s="10">
         <v>2020</v>
@@ -19191,10 +19149,10 @@
         <v>111</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H39" s="10">
         <v>2</v>
@@ -19228,7 +19186,7 @@
         <v>6</v>
       </c>
       <c r="U39" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="V39" s="10">
         <v>2</v>
@@ -19240,7 +19198,7 @@
         <v>9</v>
       </c>
       <c r="Y39" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Z39" s="10">
         <v>2</v>
@@ -19259,10 +19217,10 @@
         <v>3</v>
       </c>
       <c r="AF39" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AG39" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AH39" s="11" t="s">
         <v>120</v>
@@ -19272,7 +19230,7 @@
         <v>1</v>
       </c>
       <c r="AK39" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AL39" s="10">
         <v>13</v>
@@ -19327,26 +19285,26 @@
       <c r="BL39" s="12"/>
       <c r="BM39" s="12"/>
       <c r="BN39" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BO39" s="10">
         <v>3</v>
       </c>
       <c r="BP39" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BQ39" s="31">
         <v>3</v>
       </c>
       <c r="BR39" s="12"/>
       <c r="BS39" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="BT39" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="BU39" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="BT39" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="BU39" s="11" t="s">
-        <v>266</v>
       </c>
       <c r="BV39" s="12"/>
       <c r="BW39" s="12"/>
@@ -19356,7 +19314,7 @@
         <v>14</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C40" s="10">
         <v>2020</v>
@@ -19368,10 +19326,10 @@
         <v>111</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H40" s="10">
         <v>2</v>
@@ -19405,7 +19363,7 @@
         <v>6</v>
       </c>
       <c r="U40" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="V40" s="10">
         <v>2</v>
@@ -19417,7 +19375,7 @@
         <v>9</v>
       </c>
       <c r="Y40" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Z40" s="10">
         <v>2</v>
@@ -19436,10 +19394,10 @@
         <v>3</v>
       </c>
       <c r="AF40" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AG40" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AH40" s="11" t="s">
         <v>120</v>
@@ -19449,7 +19407,7 @@
         <v>1</v>
       </c>
       <c r="AK40" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AL40" s="10">
         <v>13</v>
@@ -19504,26 +19462,26 @@
       <c r="BL40" s="12"/>
       <c r="BM40" s="12"/>
       <c r="BN40" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BO40" s="10">
         <v>3</v>
       </c>
       <c r="BP40" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BQ40" s="31">
         <v>3</v>
       </c>
       <c r="BR40" s="12"/>
       <c r="BS40" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="BT40" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="BU40" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="BT40" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="BU40" s="11" t="s">
-        <v>266</v>
       </c>
       <c r="BV40" s="12"/>
       <c r="BW40" s="12"/>
@@ -19533,7 +19491,7 @@
         <v>15</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C41" s="10">
         <v>2021</v>
@@ -19555,7 +19513,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K41" s="10">
         <v>4</v>
@@ -19564,7 +19522,7 @@
         <v>3</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N41" s="10">
         <v>2</v>
@@ -19584,7 +19542,7 @@
         <v>5</v>
       </c>
       <c r="U41" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="V41" s="10">
         <v>1</v>
@@ -19613,16 +19571,16 @@
         <v>2</v>
       </c>
       <c r="AF41" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG41" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AH41" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI41" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AJ41" s="10">
         <v>2</v>
@@ -19709,7 +19667,7 @@
         <v>8.3800000000000008</v>
       </c>
       <c r="BN41" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BO41" s="10">
         <v>3</v>
@@ -19723,7 +19681,7 @@
       <c r="BT41" s="12"/>
       <c r="BU41" s="12"/>
       <c r="BV41" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BW41" s="12"/>
     </row>
@@ -19732,7 +19690,7 @@
         <v>15</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C42" s="10">
         <v>2021</v>
@@ -19754,7 +19712,7 @@
         <v>3</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K42" s="10">
         <v>4</v>
@@ -19763,7 +19721,7 @@
         <v>3</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N42" s="10">
         <v>2</v>
@@ -19783,7 +19741,7 @@
         <v>5</v>
       </c>
       <c r="U42" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="V42" s="10">
         <v>1</v>
@@ -19812,16 +19770,16 @@
         <v>2</v>
       </c>
       <c r="AF42" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG42" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AH42" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI42" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AJ42" s="10">
         <v>2</v>
@@ -19908,7 +19866,7 @@
         <v>39.380000000000003</v>
       </c>
       <c r="BN42" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BO42" s="10">
         <v>3</v>
@@ -19922,7 +19880,7 @@
       <c r="BT42" s="12"/>
       <c r="BU42" s="12"/>
       <c r="BV42" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BW42" s="12"/>
     </row>
@@ -19931,7 +19889,7 @@
         <v>15</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C43" s="10">
         <v>2021</v>
@@ -19953,7 +19911,7 @@
         <v>3</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K43" s="10">
         <v>4</v>
@@ -19962,7 +19920,7 @@
         <v>3</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N43" s="10">
         <v>2</v>
@@ -19982,7 +19940,7 @@
         <v>5</v>
       </c>
       <c r="U43" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="V43" s="10">
         <v>1</v>
@@ -20011,16 +19969,16 @@
         <v>2</v>
       </c>
       <c r="AF43" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG43" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AH43" s="11" t="s">
         <v>221</v>
       </c>
       <c r="AI43" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AJ43" s="10">
         <v>2</v>
@@ -20107,7 +20065,7 @@
         <v>7.81</v>
       </c>
       <c r="BN43" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BO43" s="10">
         <v>3</v>
@@ -20121,7 +20079,7 @@
       <c r="BT43" s="12"/>
       <c r="BU43" s="12"/>
       <c r="BV43" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BW43" s="12"/>
     </row>
@@ -20130,7 +20088,7 @@
         <v>15</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C44" s="10">
         <v>2021</v>
@@ -20152,7 +20110,7 @@
         <v>3</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K44" s="10">
         <v>4</v>
@@ -20161,7 +20119,7 @@
         <v>3</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N44" s="10">
         <v>2</v>
@@ -20181,7 +20139,7 @@
         <v>5</v>
       </c>
       <c r="U44" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="V44" s="10">
         <v>1</v>
@@ -20210,10 +20168,10 @@
         <v>2</v>
       </c>
       <c r="AF44" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG44" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AH44" s="11" t="s">
         <v>84</v>
@@ -20304,7 +20262,7 @@
         <v>63.09</v>
       </c>
       <c r="BN44" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BO44" s="10">
         <v>3</v>
@@ -20318,7 +20276,7 @@
       <c r="BT44" s="12"/>
       <c r="BU44" s="12"/>
       <c r="BV44" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BW44" s="12"/>
     </row>
@@ -20327,7 +20285,7 @@
         <v>15</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C45" s="10">
         <v>2021</v>
@@ -20349,7 +20307,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K45" s="10">
         <v>4</v>
@@ -20358,7 +20316,7 @@
         <v>3</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N45" s="10">
         <v>2</v>
@@ -20378,7 +20336,7 @@
         <v>5</v>
       </c>
       <c r="U45" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="V45" s="10">
         <v>1</v>
@@ -20407,10 +20365,10 @@
         <v>2</v>
       </c>
       <c r="AF45" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG45" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AH45" s="11" t="s">
         <v>221</v>
@@ -20501,7 +20459,7 @@
         <v>16.36</v>
       </c>
       <c r="BN45" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BO45" s="10">
         <v>3</v>
@@ -20515,7 +20473,7 @@
       <c r="BT45" s="12"/>
       <c r="BU45" s="12"/>
       <c r="BV45" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BW45" s="12"/>
     </row>
@@ -20524,7 +20482,7 @@
         <v>15</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C46" s="10">
         <v>2021</v>
@@ -20546,7 +20504,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K46" s="10">
         <v>4</v>
@@ -20555,7 +20513,7 @@
         <v>3</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N46" s="10">
         <v>2</v>
@@ -20575,7 +20533,7 @@
         <v>5</v>
       </c>
       <c r="U46" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="V46" s="10">
         <v>1</v>
@@ -20604,10 +20562,10 @@
         <v>2</v>
       </c>
       <c r="AF46" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG46" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AH46" s="11" t="s">
         <v>92</v>
@@ -20617,7 +20575,7 @@
         <v>2</v>
       </c>
       <c r="AK46" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AL46" s="10">
         <v>7.5</v>
@@ -20698,7 +20656,7 @@
         <v>511.76</v>
       </c>
       <c r="BN46" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BO46" s="10">
         <v>3</v>
@@ -20712,7 +20670,7 @@
       <c r="BT46" s="12"/>
       <c r="BU46" s="12"/>
       <c r="BV46" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BW46" s="12"/>
     </row>
@@ -20721,7 +20679,7 @@
         <v>15</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C47" s="10">
         <v>2021</v>
@@ -20743,7 +20701,7 @@
         <v>3</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K47" s="10">
         <v>4</v>
@@ -20752,7 +20710,7 @@
         <v>3</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N47" s="10">
         <v>2</v>
@@ -20772,7 +20730,7 @@
         <v>5</v>
       </c>
       <c r="U47" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="V47" s="10">
         <v>1</v>
@@ -20801,10 +20759,10 @@
         <v>2</v>
       </c>
       <c r="AF47" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG47" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AH47" s="11" t="s">
         <v>84</v>
@@ -20814,7 +20772,7 @@
         <v>2</v>
       </c>
       <c r="AK47" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AL47" s="10">
         <v>7.5</v>
@@ -20895,7 +20853,7 @@
         <v>28.64</v>
       </c>
       <c r="BN47" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BO47" s="10">
         <v>3</v>
@@ -20909,7 +20867,7 @@
       <c r="BT47" s="12"/>
       <c r="BU47" s="12"/>
       <c r="BV47" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BW47" s="12"/>
     </row>
@@ -20918,7 +20876,7 @@
         <v>16</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C48" s="10">
         <v>2018</v>
@@ -20940,7 +20898,7 @@
         <v>2</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K48" s="10">
         <v>4</v>
@@ -20949,7 +20907,7 @@
         <v>3</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N48" s="10">
         <v>2</v>
@@ -20969,7 +20927,7 @@
         <v>5</v>
       </c>
       <c r="U48" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="V48" s="10">
         <v>1</v>
@@ -20998,10 +20956,10 @@
         <v>3</v>
       </c>
       <c r="AF48" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AG48" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AH48" s="11" t="s">
         <v>120</v>
@@ -21011,7 +20969,7 @@
         <v>1</v>
       </c>
       <c r="AK48" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AL48" s="10">
         <v>10</v>
@@ -21074,7 +21032,7 @@
       <c r="BL48" s="12"/>
       <c r="BM48" s="12"/>
       <c r="BN48" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BO48" s="10">
         <v>1</v>
@@ -21095,7 +21053,7 @@
         <v>16</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C49" s="10">
         <v>2018</v>
@@ -21117,7 +21075,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K49" s="10">
         <v>4</v>
@@ -21126,7 +21084,7 @@
         <v>3</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N49" s="10">
         <v>2</v>
@@ -21146,7 +21104,7 @@
         <v>5</v>
       </c>
       <c r="U49" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="V49" s="10">
         <v>1</v>
@@ -21178,13 +21136,13 @@
         <v>82</v>
       </c>
       <c r="AG49" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AH49" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI49" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AJ49" s="10">
         <v>2</v>
@@ -21253,7 +21211,7 @@
       <c r="BL49" s="12"/>
       <c r="BM49" s="12"/>
       <c r="BN49" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BO49" s="10">
         <v>1</v>
@@ -21274,7 +21232,7 @@
         <v>16</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C50" s="10">
         <v>2018</v>
@@ -21296,7 +21254,7 @@
         <v>2</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K50" s="10">
         <v>4</v>
@@ -21305,7 +21263,7 @@
         <v>3</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N50" s="10">
         <v>2</v>
@@ -21325,7 +21283,7 @@
         <v>5</v>
       </c>
       <c r="U50" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="V50" s="10">
         <v>1</v>
@@ -21357,7 +21315,7 @@
         <v>82</v>
       </c>
       <c r="AG50" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AH50" s="11" t="s">
         <v>84</v>
@@ -21367,7 +21325,7 @@
         <v>1</v>
       </c>
       <c r="AK50" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL50" s="10">
         <v>10</v>
@@ -21430,7 +21388,7 @@
       <c r="BL50" s="12"/>
       <c r="BM50" s="12"/>
       <c r="BN50" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BO50" s="10">
         <v>1</v>
@@ -21451,7 +21409,7 @@
         <v>16</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C51" s="10">
         <v>2018</v>
@@ -21473,7 +21431,7 @@
         <v>2</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K51" s="10">
         <v>4</v>
@@ -21482,7 +21440,7 @@
         <v>3</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N51" s="10">
         <v>2</v>
@@ -21502,7 +21460,7 @@
         <v>5</v>
       </c>
       <c r="U51" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="V51" s="10">
         <v>1</v>
@@ -21534,7 +21492,7 @@
         <v>82</v>
       </c>
       <c r="AG51" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AH51" s="11" t="s">
         <v>221</v>
@@ -21544,7 +21502,7 @@
         <v>1</v>
       </c>
       <c r="AK51" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AL51" s="10">
         <v>10</v>
@@ -21607,7 +21565,7 @@
       <c r="BL51" s="12"/>
       <c r="BM51" s="12"/>
       <c r="BN51" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BO51" s="10">
         <v>1</v>
@@ -21628,7 +21586,7 @@
         <v>17</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C52" s="10">
         <v>2016</v>
@@ -21640,7 +21598,7 @@
         <v>75</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="10">
@@ -21650,7 +21608,7 @@
         <v>5</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K52" s="10">
         <v>4</v>
@@ -21659,7 +21617,7 @@
         <v>3</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N52" s="10">
         <v>2</v>
@@ -21675,13 +21633,13 @@
         <v>2</v>
       </c>
       <c r="S52" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="T52" s="10">
         <v>5</v>
       </c>
       <c r="U52" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="V52" s="10">
         <v>2</v>
@@ -21710,16 +21668,16 @@
         <v>1</v>
       </c>
       <c r="AF52" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AG52" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AH52" s="11" t="s">
         <v>221</v>
       </c>
       <c r="AI52" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AJ52" s="10">
         <v>2</v>
@@ -21788,7 +21746,7 @@
       <c r="BL52" s="12"/>
       <c r="BM52" s="12"/>
       <c r="BN52" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="BO52" s="10">
         <v>3</v>
@@ -21809,7 +21767,7 @@
         <v>17</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C53" s="10">
         <v>2016</v>
@@ -21821,7 +21779,7 @@
         <v>75</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="10">
@@ -21831,7 +21789,7 @@
         <v>5</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K53" s="10">
         <v>4</v>
@@ -21840,7 +21798,7 @@
         <v>3</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N53" s="10">
         <v>2</v>
@@ -21856,13 +21814,13 @@
         <v>2</v>
       </c>
       <c r="S53" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="T53" s="10">
         <v>5</v>
       </c>
       <c r="U53" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="V53" s="10">
         <v>2</v>
@@ -21891,16 +21849,16 @@
         <v>1</v>
       </c>
       <c r="AF53" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AG53" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AH53" s="11" t="s">
         <v>221</v>
       </c>
       <c r="AI53" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AJ53" s="10">
         <v>2</v>
@@ -21969,7 +21927,7 @@
       <c r="BL53" s="12"/>
       <c r="BM53" s="12"/>
       <c r="BN53" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="BO53" s="10">
         <v>3</v>
@@ -21990,7 +21948,7 @@
         <v>18</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C54" s="10">
         <v>2019</v>
@@ -22019,7 +21977,7 @@
         <v>3</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N54" s="10">
         <v>2</v>
@@ -22039,7 +21997,7 @@
         <v>5</v>
       </c>
       <c r="U54" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="V54" s="10">
         <v>1</v>
@@ -22077,13 +22035,13 @@
         <v>84</v>
       </c>
       <c r="AI54" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AJ54" s="10">
         <v>2</v>
       </c>
       <c r="AK54" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AL54" s="10">
         <v>10</v>
@@ -22138,13 +22096,13 @@
       <c r="BL54" s="12"/>
       <c r="BM54" s="12"/>
       <c r="BN54" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BO54" s="10">
         <v>3</v>
       </c>
       <c r="BP54" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BQ54" s="10">
         <v>1</v>
@@ -22161,7 +22119,7 @@
         <v>18</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C55" s="10">
         <v>2019</v>
@@ -22190,7 +22148,7 @@
         <v>3</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N55" s="10">
         <v>2</v>
@@ -22210,7 +22168,7 @@
         <v>5</v>
       </c>
       <c r="U55" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="V55" s="10">
         <v>1</v>
@@ -22242,7 +22200,7 @@
         <v>82</v>
       </c>
       <c r="AG55" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AH55" s="11" t="s">
         <v>120</v>
@@ -22252,7 +22210,7 @@
         <v>1</v>
       </c>
       <c r="AK55" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AL55" s="10">
         <v>10</v>
@@ -22307,13 +22265,13 @@
       <c r="BL55" s="12"/>
       <c r="BM55" s="12"/>
       <c r="BN55" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BO55" s="10">
         <v>3</v>
       </c>
       <c r="BP55" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BQ55" s="10">
         <v>1</v>
@@ -22330,7 +22288,7 @@
         <v>19</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C56" s="10">
         <v>2021</v>
@@ -22359,7 +22317,7 @@
         <v>3</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N56" s="10">
         <v>1</v>
@@ -22375,13 +22333,13 @@
         <v>2</v>
       </c>
       <c r="S56" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="T56" s="10">
         <v>5</v>
       </c>
       <c r="U56" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="V56" s="10">
         <v>1</v>
@@ -22393,7 +22351,7 @@
         <v>10</v>
       </c>
       <c r="Y56" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Z56" s="10">
         <v>2</v>
@@ -22427,7 +22385,7 @@
         <v>2</v>
       </c>
       <c r="AK56" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL56" s="10">
         <v>16</v>
@@ -22482,7 +22440,7 @@
       <c r="BL56" s="12"/>
       <c r="BM56" s="12"/>
       <c r="BN56" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BO56" s="10">
         <v>3</v>
@@ -22503,7 +22461,7 @@
         <v>19</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C57" s="10">
         <v>2021</v>
@@ -22532,7 +22490,7 @@
         <v>3</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N57" s="10">
         <v>1</v>
@@ -22548,13 +22506,13 @@
         <v>2</v>
       </c>
       <c r="S57" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="T57" s="10">
         <v>5</v>
       </c>
       <c r="U57" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="V57" s="10">
         <v>1</v>
@@ -22566,7 +22524,7 @@
         <v>10</v>
       </c>
       <c r="Y57" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Z57" s="10">
         <v>2</v>
@@ -22588,7 +22546,7 @@
         <v>82</v>
       </c>
       <c r="AG57" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AH57" s="11" t="s">
         <v>221</v>
@@ -22598,7 +22556,7 @@
         <v>1</v>
       </c>
       <c r="AK57" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AL57" s="10">
         <v>16</v>
@@ -22653,7 +22611,7 @@
       <c r="BL57" s="12"/>
       <c r="BM57" s="12"/>
       <c r="BN57" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BO57" s="10">
         <v>3</v>
@@ -22674,7 +22632,7 @@
         <v>19</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C58" s="10">
         <v>2021</v>
@@ -22703,7 +22661,7 @@
         <v>3</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N58" s="10">
         <v>1</v>
@@ -22719,13 +22677,13 @@
         <v>2</v>
       </c>
       <c r="S58" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="T58" s="10">
         <v>5</v>
       </c>
       <c r="U58" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="V58" s="10">
         <v>1</v>
@@ -22737,7 +22695,7 @@
         <v>10</v>
       </c>
       <c r="Y58" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Z58" s="10">
         <v>2</v>
@@ -22756,10 +22714,10 @@
         <v>3</v>
       </c>
       <c r="AF58" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AG58" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH58" s="11" t="s">
         <v>221</v>
@@ -22769,7 +22727,7 @@
         <v>2</v>
       </c>
       <c r="AK58" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AL58" s="10">
         <v>16</v>
@@ -22824,7 +22782,7 @@
       <c r="BL58" s="12"/>
       <c r="BM58" s="12"/>
       <c r="BN58" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BO58" s="10">
         <v>3</v>
@@ -22845,7 +22803,7 @@
         <v>19</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C59" s="10">
         <v>2021</v>
@@ -22874,7 +22832,7 @@
         <v>3</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N59" s="10">
         <v>1</v>
@@ -22890,13 +22848,13 @@
         <v>2</v>
       </c>
       <c r="S59" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="T59" s="10">
         <v>5</v>
       </c>
       <c r="U59" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="V59" s="10">
         <v>1</v>
@@ -22908,7 +22866,7 @@
         <v>10</v>
       </c>
       <c r="Y59" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Z59" s="10">
         <v>2</v>
@@ -22927,20 +22885,20 @@
         <v>3</v>
       </c>
       <c r="AF59" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AG59" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AH59" s="31" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AI59" s="12"/>
       <c r="AJ59" s="10">
         <v>1</v>
       </c>
       <c r="AK59" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AL59" s="10">
         <v>16</v>
@@ -22995,7 +22953,7 @@
       <c r="BL59" s="12"/>
       <c r="BM59" s="12"/>
       <c r="BN59" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BO59" s="10">
         <v>3</v>
@@ -23016,7 +22974,7 @@
         <v>20</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C60" s="10">
         <v>2011</v>
@@ -23028,7 +22986,7 @@
         <v>75</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="10">
@@ -23045,7 +23003,7 @@
         <v>3</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N60" s="10">
         <v>2</v>
@@ -23061,13 +23019,13 @@
         <v>3</v>
       </c>
       <c r="S60" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="T60" s="10">
         <v>5</v>
       </c>
       <c r="U60" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V60" s="10">
         <v>1</v>
@@ -23099,7 +23057,7 @@
         <v>82</v>
       </c>
       <c r="AG60" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AH60" s="11" t="s">
         <v>84</v>
@@ -23164,7 +23122,7 @@
       <c r="BL60" s="12"/>
       <c r="BM60" s="12"/>
       <c r="BN60" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BO60" s="10">
         <v>1</v>
@@ -23185,7 +23143,7 @@
         <v>20</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C61" s="10">
         <v>2011</v>
@@ -23197,7 +23155,7 @@
         <v>75</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="10">
@@ -23214,7 +23172,7 @@
         <v>3</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N61" s="10">
         <v>2</v>
@@ -23230,13 +23188,13 @@
         <v>3</v>
       </c>
       <c r="S61" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="T61" s="10">
         <v>5</v>
       </c>
       <c r="U61" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V61" s="10">
         <v>1</v>
@@ -23268,13 +23226,13 @@
         <v>82</v>
       </c>
       <c r="AG61" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AH61" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI61" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AJ61" s="10">
         <v>1</v>
@@ -23335,7 +23293,7 @@
       <c r="BL61" s="12"/>
       <c r="BM61" s="12"/>
       <c r="BN61" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BO61" s="10">
         <v>1</v>
@@ -23356,7 +23314,7 @@
         <v>21</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C62" s="10">
         <v>2011</v>
@@ -23368,7 +23326,7 @@
         <v>75</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G62" s="12"/>
       <c r="H62" s="10">
@@ -23385,7 +23343,7 @@
         <v>3</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N62" s="10">
         <v>2</v>
@@ -23405,7 +23363,7 @@
         <v>5</v>
       </c>
       <c r="U62" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="V62" s="10">
         <v>1</v>
@@ -23443,13 +23401,13 @@
         <v>84</v>
       </c>
       <c r="AI62" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AJ62" s="10">
         <v>2</v>
       </c>
       <c r="AK62" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AL62" s="10">
         <v>5</v>
@@ -23512,7 +23470,7 @@
       <c r="BL62" s="12"/>
       <c r="BM62" s="12"/>
       <c r="BN62" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BO62" s="10">
         <v>3</v>
@@ -23522,7 +23480,7 @@
         <v>3</v>
       </c>
       <c r="BR62" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BS62" s="12"/>
       <c r="BT62" s="12"/>
@@ -23535,7 +23493,7 @@
         <v>21</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C63" s="10">
         <v>2011</v>
@@ -23547,7 +23505,7 @@
         <v>75</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G63" s="12"/>
       <c r="H63" s="10">
@@ -23564,7 +23522,7 @@
         <v>3</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N63" s="10">
         <v>2</v>
@@ -23584,7 +23542,7 @@
         <v>5</v>
       </c>
       <c r="U63" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="V63" s="10">
         <v>1</v>
@@ -23616,7 +23574,7 @@
         <v>82</v>
       </c>
       <c r="AG63" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AH63" s="11" t="s">
         <v>120</v>
@@ -23626,7 +23584,7 @@
         <v>1</v>
       </c>
       <c r="AK63" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AL63" s="10">
         <v>5</v>
@@ -23689,7 +23647,7 @@
       <c r="BL63" s="12"/>
       <c r="BM63" s="12"/>
       <c r="BN63" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BO63" s="10">
         <v>3</v>
@@ -23699,7 +23657,7 @@
         <v>3</v>
       </c>
       <c r="BR63" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BS63" s="12"/>
       <c r="BT63" s="12"/>
@@ -23707,745 +23665,661 @@
       <c r="BV63" s="12"/>
       <c r="BW63" s="12"/>
     </row>
-    <row r="64" spans="1:75" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="8">
+    <row r="64" spans="1:75" s="36" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="36">
         <v>22</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="36">
         <v>2019</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="36">
         <v>63</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="10">
-        <v>2</v>
-      </c>
-      <c r="I64" s="10">
-        <v>3</v>
-      </c>
-      <c r="J64" s="12"/>
-      <c r="K64" s="10">
+      <c r="H64" s="36">
+        <v>2</v>
+      </c>
+      <c r="I64" s="36">
+        <v>3</v>
+      </c>
+      <c r="K64" s="36">
         <v>4</v>
       </c>
-      <c r="L64" s="10">
-        <v>3</v>
-      </c>
-      <c r="M64" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="N64" s="10">
-        <v>2</v>
-      </c>
-      <c r="O64" s="10">
-        <v>2</v>
-      </c>
-      <c r="P64" s="11" t="s">
+      <c r="L64" s="36">
+        <v>3</v>
+      </c>
+      <c r="M64" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="N64" s="36">
+        <v>2</v>
+      </c>
+      <c r="O64" s="36">
+        <v>2</v>
+      </c>
+      <c r="P64" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q64" s="36">
+        <v>3</v>
+      </c>
+      <c r="R64" s="36">
+        <v>2</v>
+      </c>
+      <c r="S64" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="T64" s="36">
+        <v>5</v>
+      </c>
+      <c r="U64" s="36" t="s">
         <v>338</v>
       </c>
-      <c r="Q64" s="10">
-        <v>3</v>
-      </c>
-      <c r="R64" s="10">
-        <v>2</v>
-      </c>
-      <c r="S64" s="11" t="s">
+      <c r="V64" s="36">
+        <v>1</v>
+      </c>
+      <c r="W64" s="36">
+        <v>1</v>
+      </c>
+      <c r="X64" s="36">
+        <v>8</v>
+      </c>
+      <c r="Z64" s="36">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="36" t="s">
         <v>339</v>
       </c>
-      <c r="T64" s="10">
+      <c r="AB64" s="36">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="36">
+        <v>3</v>
+      </c>
+      <c r="AD64" s="36">
+        <v>1</v>
+      </c>
+      <c r="AE64" s="36">
+        <v>3</v>
+      </c>
+      <c r="AF64" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG64" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH64" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI64" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ64" s="36">
+        <v>2</v>
+      </c>
+      <c r="AK64" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL64" s="36">
+        <v>7</v>
+      </c>
+      <c r="AM64" s="36">
+        <v>77.66</v>
+      </c>
+      <c r="AO64" s="36">
+        <v>19.71</v>
+      </c>
+      <c r="AP64" s="36">
+        <v>7.45</v>
+      </c>
+      <c r="AS64" s="36">
+        <v>7</v>
+      </c>
+      <c r="AT64" s="36">
+        <v>100</v>
+      </c>
+      <c r="AV64" s="36">
+        <v>25.32</v>
+      </c>
+      <c r="AW64" s="36">
+        <v>9.57</v>
+      </c>
+      <c r="AZ64" s="36">
+        <v>7</v>
+      </c>
+      <c r="BA64" s="36">
+        <v>95.74</v>
+      </c>
+      <c r="BC64" s="36">
+        <v>25.35</v>
+      </c>
+      <c r="BD64" s="36">
+        <v>9.58</v>
+      </c>
+      <c r="BG64" s="36">
+        <v>7</v>
+      </c>
+      <c r="BH64" s="36">
+        <v>104.26</v>
+      </c>
+      <c r="BJ64" s="36">
+        <v>28.12</v>
+      </c>
+      <c r="BK64" s="36">
+        <v>10.63</v>
+      </c>
+      <c r="BN64" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="BO64" s="36">
+        <v>3</v>
+      </c>
+      <c r="BQ64" s="36">
+        <v>3</v>
+      </c>
+      <c r="BR64" s="36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:75" s="36" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="36">
+        <v>22</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" s="36">
+        <v>2019</v>
+      </c>
+      <c r="D65" s="36">
+        <v>64</v>
+      </c>
+      <c r="E65" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="H65" s="36">
+        <v>2</v>
+      </c>
+      <c r="I65" s="36">
+        <v>3</v>
+      </c>
+      <c r="K65" s="36">
+        <v>4</v>
+      </c>
+      <c r="L65" s="36">
+        <v>3</v>
+      </c>
+      <c r="M65" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="N65" s="36">
+        <v>2</v>
+      </c>
+      <c r="O65" s="36">
+        <v>2</v>
+      </c>
+      <c r="P65" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q65" s="36">
+        <v>3</v>
+      </c>
+      <c r="R65" s="36">
+        <v>2</v>
+      </c>
+      <c r="S65" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="T65" s="36">
         <v>5</v>
       </c>
-      <c r="U64" s="11" t="s">
+      <c r="U65" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="V65" s="36">
+        <v>1</v>
+      </c>
+      <c r="W65" s="36">
+        <v>1</v>
+      </c>
+      <c r="X65" s="36">
+        <v>8</v>
+      </c>
+      <c r="Z65" s="36">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB65" s="36">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="36">
+        <v>3</v>
+      </c>
+      <c r="AD65" s="36">
+        <v>1</v>
+      </c>
+      <c r="AE65" s="36">
+        <v>3</v>
+      </c>
+      <c r="AF65" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG65" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="V64" s="10">
-        <v>1</v>
-      </c>
-      <c r="W64" s="10">
-        <v>1</v>
-      </c>
-      <c r="X64" s="10">
+      <c r="AH65" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI65" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ65" s="36">
+        <v>2</v>
+      </c>
+      <c r="AK65" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL65" s="36">
+        <v>7</v>
+      </c>
+      <c r="AM65" s="36">
+        <v>92.06</v>
+      </c>
+      <c r="AO65" s="36">
+        <v>33.6</v>
+      </c>
+      <c r="AP65" s="36">
+        <v>12.7</v>
+      </c>
+      <c r="AS65" s="36">
+        <v>7</v>
+      </c>
+      <c r="AT65" s="36">
+        <v>92.06</v>
+      </c>
+      <c r="AV65" s="36">
+        <v>11.67</v>
+      </c>
+      <c r="AW65" s="36">
+        <v>4.41</v>
+      </c>
+      <c r="AZ65" s="36">
+        <v>7</v>
+      </c>
+      <c r="BA65" s="36">
+        <v>98.41</v>
+      </c>
+      <c r="BC65" s="36">
+        <v>27.99</v>
+      </c>
+      <c r="BD65" s="36">
+        <v>10.58</v>
+      </c>
+      <c r="BG65" s="36">
+        <v>7</v>
+      </c>
+      <c r="BH65" s="36">
+        <v>81.48</v>
+      </c>
+      <c r="BJ65" s="36">
+        <v>16.8</v>
+      </c>
+      <c r="BK65" s="36">
+        <v>6.35</v>
+      </c>
+      <c r="BN65" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="BO65" s="36">
+        <v>3</v>
+      </c>
+      <c r="BQ65" s="36">
+        <v>3</v>
+      </c>
+      <c r="BR65" s="36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:75" s="36" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="36">
+        <v>22</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C66" s="36">
+        <v>2019</v>
+      </c>
+      <c r="D66" s="36">
+        <v>65</v>
+      </c>
+      <c r="E66" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="H66" s="36">
+        <v>2</v>
+      </c>
+      <c r="I66" s="36">
+        <v>3</v>
+      </c>
+      <c r="K66" s="36">
+        <v>4</v>
+      </c>
+      <c r="L66" s="36">
+        <v>3</v>
+      </c>
+      <c r="M66" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="N66" s="36">
+        <v>2</v>
+      </c>
+      <c r="O66" s="36">
+        <v>2</v>
+      </c>
+      <c r="P66" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q66" s="36">
+        <v>3</v>
+      </c>
+      <c r="R66" s="36">
+        <v>2</v>
+      </c>
+      <c r="S66" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="T66" s="36">
+        <v>5</v>
+      </c>
+      <c r="U66" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="V66" s="36">
+        <v>1</v>
+      </c>
+      <c r="W66" s="36">
+        <v>1</v>
+      </c>
+      <c r="X66" s="36">
         <v>8</v>
       </c>
-      <c r="Y64" s="12"/>
-      <c r="Z64" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA64" s="11" t="s">
+      <c r="Z66" s="36">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB66" s="36">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="36">
+        <v>3</v>
+      </c>
+      <c r="AD66" s="36">
+        <v>1</v>
+      </c>
+      <c r="AE66" s="36">
+        <v>3</v>
+      </c>
+      <c r="AF66" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG66" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH66" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI66" s="36" t="s">
         <v>341</v>
       </c>
-      <c r="AB64" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC64" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD64" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE64" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF64" s="11" t="s">
+      <c r="AJ66" s="36">
+        <v>2</v>
+      </c>
+      <c r="AK66" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL66" s="36">
+        <v>7</v>
+      </c>
+      <c r="AM66" s="36">
+        <v>114.29</v>
+      </c>
+      <c r="AO66" s="36">
+        <v>26.46</v>
+      </c>
+      <c r="AP66" s="36">
+        <v>10</v>
+      </c>
+      <c r="AS66" s="36">
+        <v>7</v>
+      </c>
+      <c r="AT66" s="36">
+        <v>82.86</v>
+      </c>
+      <c r="AV66" s="36">
+        <v>18.89</v>
+      </c>
+      <c r="AW66" s="36">
+        <v>7.14</v>
+      </c>
+      <c r="AZ66" s="36">
+        <v>7</v>
+      </c>
+      <c r="BA66" s="36">
+        <v>114.29</v>
+      </c>
+      <c r="BC66" s="36">
+        <v>22.67</v>
+      </c>
+      <c r="BD66" s="36">
+        <v>8.57</v>
+      </c>
+      <c r="BG66" s="36">
+        <v>7</v>
+      </c>
+      <c r="BH66" s="36">
+        <v>77.14</v>
+      </c>
+      <c r="BJ66" s="36">
+        <v>15.13</v>
+      </c>
+      <c r="BK66" s="36">
+        <v>5.72</v>
+      </c>
+      <c r="BN66" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="BO66" s="36">
+        <v>3</v>
+      </c>
+      <c r="BQ66" s="36">
+        <v>3</v>
+      </c>
+      <c r="BR66" s="36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:75" s="36" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="36">
+        <v>22</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" s="36">
+        <v>2019</v>
+      </c>
+      <c r="D67" s="36">
+        <v>66</v>
+      </c>
+      <c r="E67" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" s="36">
+        <v>2</v>
+      </c>
+      <c r="I67" s="36">
+        <v>3</v>
+      </c>
+      <c r="K67" s="36">
+        <v>4</v>
+      </c>
+      <c r="L67" s="36">
+        <v>3</v>
+      </c>
+      <c r="M67" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="N67" s="36">
+        <v>2</v>
+      </c>
+      <c r="O67" s="36">
+        <v>2</v>
+      </c>
+      <c r="P67" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q67" s="36">
+        <v>3</v>
+      </c>
+      <c r="R67" s="36">
+        <v>2</v>
+      </c>
+      <c r="S67" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="T67" s="36">
+        <v>5</v>
+      </c>
+      <c r="U67" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="V67" s="36">
+        <v>1</v>
+      </c>
+      <c r="W67" s="36">
+        <v>1</v>
+      </c>
+      <c r="X67" s="36">
+        <v>8</v>
+      </c>
+      <c r="Z67" s="36">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB67" s="36">
+        <v>1</v>
+      </c>
+      <c r="AC67" s="36">
+        <v>3</v>
+      </c>
+      <c r="AD67" s="36">
+        <v>1</v>
+      </c>
+      <c r="AE67" s="36">
+        <v>3</v>
+      </c>
+      <c r="AF67" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="AG64" s="38" t="s">
+      <c r="AG67" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH67" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI67" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ67" s="36">
+        <v>2</v>
+      </c>
+      <c r="AK67" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL67" s="36">
+        <v>7</v>
+      </c>
+      <c r="AM67" s="36">
+        <v>92.49</v>
+      </c>
+      <c r="AO67" s="36">
+        <v>38.229999999999997</v>
+      </c>
+      <c r="AP67" s="36">
+        <v>14.45</v>
+      </c>
+      <c r="AS67" s="36">
+        <v>7</v>
+      </c>
+      <c r="AT67" s="36">
+        <v>63.58</v>
+      </c>
+      <c r="AV67" s="36">
+        <v>15.29</v>
+      </c>
+      <c r="AW67" s="36">
+        <v>5.78</v>
+      </c>
+      <c r="AZ67" s="36">
+        <v>7</v>
+      </c>
+      <c r="BA67" s="36">
+        <v>106.94</v>
+      </c>
+      <c r="BC67" s="36">
+        <v>38.229999999999997</v>
+      </c>
+      <c r="BD67" s="36">
+        <v>14.45</v>
+      </c>
+      <c r="BG67" s="36">
+        <v>7</v>
+      </c>
+      <c r="BH67" s="36">
+        <v>88.15</v>
+      </c>
+      <c r="BJ67" s="36">
+        <v>15.29</v>
+      </c>
+      <c r="BK67" s="36">
+        <v>5.78</v>
+      </c>
+      <c r="BN67" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="AH64" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI64" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="AJ64" s="36">
-        <v>2</v>
-      </c>
-      <c r="AK64" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="AL64" s="10">
-        <v>7</v>
-      </c>
-      <c r="AM64" s="10">
-        <v>77.66</v>
-      </c>
-      <c r="AN64" s="12"/>
-      <c r="AO64" s="10">
-        <v>19.71</v>
-      </c>
-      <c r="AP64" s="10">
-        <v>7.45</v>
-      </c>
-      <c r="AQ64" s="12"/>
-      <c r="AR64" s="12"/>
-      <c r="AS64" s="10">
-        <v>7</v>
-      </c>
-      <c r="AT64" s="10">
-        <v>100</v>
-      </c>
-      <c r="AU64" s="12"/>
-      <c r="AV64" s="10">
-        <v>25.32</v>
-      </c>
-      <c r="AW64" s="10">
-        <v>9.57</v>
-      </c>
-      <c r="AX64" s="12"/>
-      <c r="AY64" s="12"/>
-      <c r="AZ64" s="10">
-        <v>7</v>
-      </c>
-      <c r="BA64" s="10">
-        <v>95.74</v>
-      </c>
-      <c r="BB64" s="12"/>
-      <c r="BC64" s="10">
-        <v>25.35</v>
-      </c>
-      <c r="BD64" s="10">
-        <v>9.58</v>
-      </c>
-      <c r="BE64" s="12"/>
-      <c r="BF64" s="12"/>
-      <c r="BG64" s="10">
-        <v>7</v>
-      </c>
-      <c r="BH64" s="10">
-        <v>104.26</v>
-      </c>
-      <c r="BI64" s="12"/>
-      <c r="BJ64" s="10">
-        <v>28.12</v>
-      </c>
-      <c r="BK64" s="10">
-        <v>10.63</v>
-      </c>
-      <c r="BL64" s="12"/>
-      <c r="BM64" s="12"/>
-      <c r="BN64" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="BO64" s="10">
-        <v>3</v>
-      </c>
-      <c r="BP64" s="12"/>
-      <c r="BQ64" s="10">
-        <v>3</v>
-      </c>
-      <c r="BR64" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="BS64" s="12"/>
-      <c r="BT64" s="12"/>
-      <c r="BU64" s="12"/>
-      <c r="BV64" s="12"/>
-      <c r="BW64" s="12"/>
-    </row>
-    <row r="65" spans="1:75" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="8">
-        <v>22</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C65" s="10">
-        <v>2019</v>
-      </c>
-      <c r="D65" s="10">
-        <v>64</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="10">
-        <v>2</v>
-      </c>
-      <c r="I65" s="10">
-        <v>3</v>
-      </c>
-      <c r="J65" s="12"/>
-      <c r="K65" s="10">
-        <v>4</v>
-      </c>
-      <c r="L65" s="10">
-        <v>3</v>
-      </c>
-      <c r="M65" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="N65" s="10">
-        <v>2</v>
-      </c>
-      <c r="O65" s="10">
-        <v>2</v>
-      </c>
-      <c r="P65" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q65" s="10">
-        <v>3</v>
-      </c>
-      <c r="R65" s="10">
-        <v>2</v>
-      </c>
-      <c r="S65" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="T65" s="10">
-        <v>5</v>
-      </c>
-      <c r="U65" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="V65" s="10">
-        <v>1</v>
-      </c>
-      <c r="W65" s="10">
-        <v>1</v>
-      </c>
-      <c r="X65" s="10">
-        <v>8</v>
-      </c>
-      <c r="Y65" s="12"/>
-      <c r="Z65" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA65" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="AB65" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC65" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD65" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE65" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF65" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG65" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="AH65" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI65" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="AJ65" s="36">
-        <v>2</v>
-      </c>
-      <c r="AK65" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="AL65" s="10">
-        <v>7</v>
-      </c>
-      <c r="AM65" s="10">
-        <v>92.06</v>
-      </c>
-      <c r="AN65" s="12"/>
-      <c r="AO65" s="10">
-        <v>33.6</v>
-      </c>
-      <c r="AP65" s="10">
-        <v>12.7</v>
-      </c>
-      <c r="AQ65" s="12"/>
-      <c r="AR65" s="12"/>
-      <c r="AS65" s="10">
-        <v>7</v>
-      </c>
-      <c r="AT65" s="10">
-        <v>92.06</v>
-      </c>
-      <c r="AU65" s="12"/>
-      <c r="AV65" s="10">
-        <v>11.67</v>
-      </c>
-      <c r="AW65" s="10">
-        <v>4.41</v>
-      </c>
-      <c r="AX65" s="12"/>
-      <c r="AY65" s="12"/>
-      <c r="AZ65" s="10">
-        <v>7</v>
-      </c>
-      <c r="BA65" s="10">
-        <v>98.41</v>
-      </c>
-      <c r="BB65" s="12"/>
-      <c r="BC65" s="10">
-        <v>27.99</v>
-      </c>
-      <c r="BD65" s="10">
-        <v>10.58</v>
-      </c>
-      <c r="BE65" s="12"/>
-      <c r="BF65" s="12"/>
-      <c r="BG65" s="10">
-        <v>7</v>
-      </c>
-      <c r="BH65" s="10">
-        <v>81.48</v>
-      </c>
-      <c r="BI65" s="12"/>
-      <c r="BJ65" s="10">
-        <v>16.8</v>
-      </c>
-      <c r="BK65" s="10">
-        <v>6.35</v>
-      </c>
-      <c r="BL65" s="12"/>
-      <c r="BM65" s="12"/>
-      <c r="BN65" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="BO65" s="10">
-        <v>3</v>
-      </c>
-      <c r="BP65" s="12"/>
-      <c r="BQ65" s="10">
-        <v>3</v>
-      </c>
-      <c r="BR65" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="BS65" s="12"/>
-      <c r="BT65" s="12"/>
-      <c r="BU65" s="12"/>
-      <c r="BV65" s="12"/>
-      <c r="BW65" s="12"/>
-    </row>
-    <row r="66" spans="1:75" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="8">
-        <v>22</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C66" s="10">
-        <v>2019</v>
-      </c>
-      <c r="D66" s="10">
-        <v>65</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G66" s="12"/>
-      <c r="H66" s="10">
-        <v>2</v>
-      </c>
-      <c r="I66" s="10">
-        <v>3</v>
-      </c>
-      <c r="J66" s="12"/>
-      <c r="K66" s="10">
-        <v>4</v>
-      </c>
-      <c r="L66" s="10">
-        <v>3</v>
-      </c>
-      <c r="M66" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="N66" s="10">
-        <v>2</v>
-      </c>
-      <c r="O66" s="10">
-        <v>2</v>
-      </c>
-      <c r="P66" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q66" s="10">
-        <v>3</v>
-      </c>
-      <c r="R66" s="10">
-        <v>2</v>
-      </c>
-      <c r="S66" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="T66" s="10">
-        <v>5</v>
-      </c>
-      <c r="U66" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="V66" s="10">
-        <v>1</v>
-      </c>
-      <c r="W66" s="10">
-        <v>1</v>
-      </c>
-      <c r="X66" s="10">
-        <v>8</v>
-      </c>
-      <c r="Y66" s="12"/>
-      <c r="Z66" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA66" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="AB66" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC66" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD66" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE66" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF66" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG66" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="AH66" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI66" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="AJ66" s="36">
-        <v>2</v>
-      </c>
-      <c r="AK66" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="AL66" s="10">
-        <v>7</v>
-      </c>
-      <c r="AM66" s="10">
-        <v>114.29</v>
-      </c>
-      <c r="AN66" s="12"/>
-      <c r="AO66" s="10">
-        <v>26.46</v>
-      </c>
-      <c r="AP66" s="10">
-        <v>10</v>
-      </c>
-      <c r="AQ66" s="12"/>
-      <c r="AR66" s="12"/>
-      <c r="AS66" s="10">
-        <v>7</v>
-      </c>
-      <c r="AT66" s="10">
-        <v>82.86</v>
-      </c>
-      <c r="AU66" s="12"/>
-      <c r="AV66" s="10">
-        <v>18.89</v>
-      </c>
-      <c r="AW66" s="10">
-        <v>7.14</v>
-      </c>
-      <c r="AX66" s="12"/>
-      <c r="AY66" s="12"/>
-      <c r="AZ66" s="10">
-        <v>7</v>
-      </c>
-      <c r="BA66" s="10">
-        <v>114.29</v>
-      </c>
-      <c r="BB66" s="12"/>
-      <c r="BC66" s="10">
-        <v>22.67</v>
-      </c>
-      <c r="BD66" s="10">
-        <v>8.57</v>
-      </c>
-      <c r="BE66" s="12"/>
-      <c r="BF66" s="12"/>
-      <c r="BG66" s="10">
-        <v>7</v>
-      </c>
-      <c r="BH66" s="10">
-        <v>77.14</v>
-      </c>
-      <c r="BI66" s="12"/>
-      <c r="BJ66" s="10">
-        <v>15.13</v>
-      </c>
-      <c r="BK66" s="10">
-        <v>5.72</v>
-      </c>
-      <c r="BL66" s="12"/>
-      <c r="BM66" s="12"/>
-      <c r="BN66" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="BO66" s="10">
-        <v>3</v>
-      </c>
-      <c r="BP66" s="12"/>
-      <c r="BQ66" s="10">
-        <v>3</v>
-      </c>
-      <c r="BR66" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="BS66" s="12"/>
-      <c r="BT66" s="12"/>
-      <c r="BU66" s="12"/>
-      <c r="BV66" s="12"/>
-      <c r="BW66" s="12"/>
-    </row>
-    <row r="67" spans="1:75" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="8">
-        <v>22</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C67" s="10">
-        <v>2019</v>
-      </c>
-      <c r="D67" s="10">
-        <v>66</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G67" s="12"/>
-      <c r="H67" s="10">
-        <v>2</v>
-      </c>
-      <c r="I67" s="10">
-        <v>3</v>
-      </c>
-      <c r="J67" s="12"/>
-      <c r="K67" s="10">
-        <v>4</v>
-      </c>
-      <c r="L67" s="10">
-        <v>3</v>
-      </c>
-      <c r="M67" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="N67" s="10">
-        <v>2</v>
-      </c>
-      <c r="O67" s="10">
-        <v>2</v>
-      </c>
-      <c r="P67" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q67" s="10">
-        <v>3</v>
-      </c>
-      <c r="R67" s="10">
-        <v>2</v>
-      </c>
-      <c r="S67" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="T67" s="10">
-        <v>5</v>
-      </c>
-      <c r="U67" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="V67" s="10">
-        <v>1</v>
-      </c>
-      <c r="W67" s="10">
-        <v>1</v>
-      </c>
-      <c r="X67" s="10">
-        <v>8</v>
-      </c>
-      <c r="Y67" s="12"/>
-      <c r="Z67" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA67" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="AB67" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC67" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD67" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE67" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF67" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG67" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="AH67" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI67" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="AJ67" s="36">
-        <v>2</v>
-      </c>
-      <c r="AK67" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="AL67" s="10">
-        <v>7</v>
-      </c>
-      <c r="AM67" s="10">
-        <v>92.49</v>
-      </c>
-      <c r="AN67" s="12"/>
-      <c r="AO67" s="10">
-        <v>38.229999999999997</v>
-      </c>
-      <c r="AP67" s="10">
-        <v>14.45</v>
-      </c>
-      <c r="AQ67" s="12"/>
-      <c r="AR67" s="12"/>
-      <c r="AS67" s="10">
-        <v>7</v>
-      </c>
-      <c r="AT67" s="10">
-        <v>63.58</v>
-      </c>
-      <c r="AU67" s="12"/>
-      <c r="AV67" s="10">
-        <v>15.29</v>
-      </c>
-      <c r="AW67" s="10">
-        <v>5.78</v>
-      </c>
-      <c r="AX67" s="12"/>
-      <c r="AY67" s="12"/>
-      <c r="AZ67" s="10">
-        <v>7</v>
-      </c>
-      <c r="BA67" s="10">
-        <v>106.94</v>
-      </c>
-      <c r="BB67" s="12"/>
-      <c r="BC67" s="10">
-        <v>38.229999999999997</v>
-      </c>
-      <c r="BD67" s="10">
-        <v>14.45</v>
-      </c>
-      <c r="BE67" s="12"/>
-      <c r="BF67" s="12"/>
-      <c r="BG67" s="10">
-        <v>7</v>
-      </c>
-      <c r="BH67" s="10">
-        <v>88.15</v>
-      </c>
-      <c r="BI67" s="12"/>
-      <c r="BJ67" s="10">
-        <v>15.29</v>
-      </c>
-      <c r="BK67" s="10">
-        <v>5.78</v>
-      </c>
-      <c r="BL67" s="12"/>
-      <c r="BM67" s="12"/>
-      <c r="BN67" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="BO67" s="10">
-        <v>3</v>
-      </c>
-      <c r="BP67" s="12"/>
-      <c r="BQ67" s="10">
-        <v>3</v>
-      </c>
-      <c r="BR67" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="BS67" s="12"/>
-      <c r="BT67" s="12"/>
-      <c r="BU67" s="12"/>
-      <c r="BV67" s="12"/>
-      <c r="BW67" s="12"/>
+      <c r="BO67" s="36">
+        <v>3</v>
+      </c>
+      <c r="BQ67" s="36">
+        <v>3</v>
+      </c>
+      <c r="BR67" s="36" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="68" spans="1:75" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="8">
@@ -24481,7 +24355,7 @@
         <v>3</v>
       </c>
       <c r="M68" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N68" s="10">
         <v>2</v>
@@ -24490,7 +24364,7 @@
         <v>2</v>
       </c>
       <c r="P68" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q68" s="10">
         <v>3</v>
@@ -24499,13 +24373,13 @@
         <v>2</v>
       </c>
       <c r="S68" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T68" s="10">
         <v>5</v>
       </c>
       <c r="U68" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="V68" s="10">
         <v>1</v>
@@ -24521,7 +24395,7 @@
         <v>1</v>
       </c>
       <c r="AA68" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AB68" s="10">
         <v>1</v>
@@ -24539,7 +24413,7 @@
         <v>177</v>
       </c>
       <c r="AG68" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AH68" s="11" t="s">
         <v>120</v>
@@ -24549,7 +24423,7 @@
         <v>1</v>
       </c>
       <c r="AK68" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AL68" s="10">
         <v>7</v>
@@ -24612,7 +24486,7 @@
       <c r="BL68" s="12"/>
       <c r="BM68" s="12"/>
       <c r="BN68" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="BO68" s="10">
         <v>3</v>
@@ -24622,7 +24496,7 @@
         <v>3</v>
       </c>
       <c r="BR68" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BS68" s="12"/>
       <c r="BT68" s="12"/>
@@ -24664,7 +24538,7 @@
         <v>3</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N69" s="10">
         <v>2</v>
@@ -24673,7 +24547,7 @@
         <v>2</v>
       </c>
       <c r="P69" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q69" s="10">
         <v>3</v>
@@ -24682,13 +24556,13 @@
         <v>2</v>
       </c>
       <c r="S69" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T69" s="10">
         <v>5</v>
       </c>
       <c r="U69" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="V69" s="10">
         <v>1</v>
@@ -24704,7 +24578,7 @@
         <v>1</v>
       </c>
       <c r="AA69" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AB69" s="10">
         <v>1</v>
@@ -24722,7 +24596,7 @@
         <v>177</v>
       </c>
       <c r="AG69" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AH69" s="11" t="s">
         <v>120</v>
@@ -24732,7 +24606,7 @@
         <v>1</v>
       </c>
       <c r="AK69" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AL69" s="10">
         <v>7</v>
@@ -24795,7 +24669,7 @@
       <c r="BL69" s="12"/>
       <c r="BM69" s="12"/>
       <c r="BN69" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="BO69" s="10">
         <v>3</v>
@@ -24805,7 +24679,7 @@
         <v>3</v>
       </c>
       <c r="BR69" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BS69" s="12"/>
       <c r="BT69" s="12"/>
@@ -24847,7 +24721,7 @@
         <v>3</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N70" s="10">
         <v>2</v>
@@ -24856,7 +24730,7 @@
         <v>2</v>
       </c>
       <c r="P70" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Q70" s="10">
         <v>3</v>
@@ -24865,13 +24739,13 @@
         <v>2</v>
       </c>
       <c r="S70" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T70" s="10">
         <v>5</v>
       </c>
       <c r="U70" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="V70" s="10">
         <v>1</v>
@@ -24887,7 +24761,7 @@
         <v>1</v>
       </c>
       <c r="AA70" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AB70" s="10">
         <v>1</v>
@@ -24905,7 +24779,7 @@
         <v>177</v>
       </c>
       <c r="AG70" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AH70" s="11" t="s">
         <v>120</v>
@@ -24915,7 +24789,7 @@
         <v>1</v>
       </c>
       <c r="AK70" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AL70" s="10">
         <v>7</v>
@@ -24978,7 +24852,7 @@
       <c r="BL70" s="12"/>
       <c r="BM70" s="12"/>
       <c r="BN70" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="BO70" s="10">
         <v>3</v>
@@ -24988,7 +24862,7 @@
         <v>3</v>
       </c>
       <c r="BR70" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BS70" s="12"/>
       <c r="BT70" s="12"/>
@@ -25030,7 +24904,7 @@
         <v>3</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N71" s="10">
         <v>2</v>
@@ -25039,7 +24913,7 @@
         <v>2</v>
       </c>
       <c r="P71" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q71" s="10">
         <v>3</v>
@@ -25048,13 +24922,13 @@
         <v>2</v>
       </c>
       <c r="S71" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T71" s="10">
         <v>5</v>
       </c>
       <c r="U71" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="V71" s="10">
         <v>1</v>
@@ -25070,7 +24944,7 @@
         <v>1</v>
       </c>
       <c r="AA71" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AB71" s="10">
         <v>1</v>
@@ -25088,7 +24962,7 @@
         <v>177</v>
       </c>
       <c r="AG71" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AH71" s="11" t="s">
         <v>120</v>
@@ -25098,7 +24972,7 @@
         <v>1</v>
       </c>
       <c r="AK71" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AL71" s="10">
         <v>7</v>
@@ -25161,7 +25035,7 @@
       <c r="BL71" s="12"/>
       <c r="BM71" s="12"/>
       <c r="BN71" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="BO71" s="10">
         <v>3</v>
@@ -25171,7 +25045,7 @@
         <v>3</v>
       </c>
       <c r="BR71" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BS71" s="12"/>
       <c r="BT71" s="12"/>
@@ -25184,7 +25058,7 @@
         <v>23</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C72" s="10">
         <v>2020</v>
@@ -25196,7 +25070,7 @@
         <v>75</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G72" s="12"/>
       <c r="H72" s="10">
@@ -25213,31 +25087,31 @@
         <v>3</v>
       </c>
       <c r="M72" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="N72" s="10">
+        <v>2</v>
+      </c>
+      <c r="O72" s="10">
+        <v>3</v>
+      </c>
+      <c r="P72" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q72" s="10">
+        <v>2</v>
+      </c>
+      <c r="R72" s="10">
+        <v>3</v>
+      </c>
+      <c r="S72" s="11" t="s">
         <v>351</v>
-      </c>
-      <c r="N72" s="10">
-        <v>2</v>
-      </c>
-      <c r="O72" s="10">
-        <v>3</v>
-      </c>
-      <c r="P72" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q72" s="10">
-        <v>2</v>
-      </c>
-      <c r="R72" s="10">
-        <v>3</v>
-      </c>
-      <c r="S72" s="11" t="s">
-        <v>353</v>
       </c>
       <c r="T72" s="10">
         <v>5</v>
       </c>
       <c r="U72" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="V72" s="10">
         <v>2</v>
@@ -25249,7 +25123,7 @@
         <v>10</v>
       </c>
       <c r="Y72" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Z72" s="10">
         <v>1</v>
@@ -25268,16 +25142,16 @@
         <v>2</v>
       </c>
       <c r="AF72" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG72" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="AG72" s="11" t="s">
-        <v>244</v>
       </c>
       <c r="AH72" s="11" t="s">
         <v>120</v>
       </c>
       <c r="AI72" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AJ72" s="10">
         <v>1</v>
@@ -25346,7 +25220,7 @@
       <c r="BL72" s="12"/>
       <c r="BM72" s="12"/>
       <c r="BN72" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="BO72" s="10">
         <v>1</v>
@@ -25367,7 +25241,7 @@
         <v>23</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C73" s="10">
         <v>2020</v>
@@ -25379,7 +25253,7 @@
         <v>75</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G73" s="12"/>
       <c r="H73" s="10">
@@ -25396,31 +25270,31 @@
         <v>3</v>
       </c>
       <c r="M73" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="N73" s="10">
+        <v>2</v>
+      </c>
+      <c r="O73" s="10">
+        <v>3</v>
+      </c>
+      <c r="P73" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q73" s="10">
+        <v>2</v>
+      </c>
+      <c r="R73" s="10">
+        <v>3</v>
+      </c>
+      <c r="S73" s="11" t="s">
         <v>351</v>
-      </c>
-      <c r="N73" s="10">
-        <v>2</v>
-      </c>
-      <c r="O73" s="10">
-        <v>3</v>
-      </c>
-      <c r="P73" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q73" s="10">
-        <v>2</v>
-      </c>
-      <c r="R73" s="10">
-        <v>3</v>
-      </c>
-      <c r="S73" s="11" t="s">
-        <v>353</v>
       </c>
       <c r="T73" s="10">
         <v>5</v>
       </c>
       <c r="U73" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="V73" s="10">
         <v>2</v>
@@ -25432,7 +25306,7 @@
         <v>10</v>
       </c>
       <c r="Y73" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Z73" s="10">
         <v>1</v>
@@ -25451,16 +25325,16 @@
         <v>2</v>
       </c>
       <c r="AF73" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG73" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="AG73" s="11" t="s">
-        <v>244</v>
       </c>
       <c r="AH73" s="11" t="s">
         <v>120</v>
       </c>
       <c r="AI73" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AJ73" s="10">
         <v>1</v>
@@ -25529,7 +25403,7 @@
       <c r="BL73" s="12"/>
       <c r="BM73" s="12"/>
       <c r="BN73" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="BO73" s="10">
         <v>1</v>
@@ -25550,7 +25424,7 @@
         <v>24</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C74" s="10">
         <v>2017</v>
@@ -25579,7 +25453,7 @@
         <v>4</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N74" s="10">
         <v>4</v>
@@ -25588,7 +25462,7 @@
         <v>4</v>
       </c>
       <c r="P74" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q74" s="10">
         <v>2</v>
@@ -25601,7 +25475,7 @@
         <v>5</v>
       </c>
       <c r="U74" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="V74" s="10">
         <v>2</v>
@@ -25630,22 +25504,22 @@
         <v>1</v>
       </c>
       <c r="AF74" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AG74" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AH74" s="11" t="s">
         <v>221</v>
       </c>
       <c r="AI74" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AJ74" s="10">
         <v>2</v>
       </c>
       <c r="AK74" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AL74" s="10">
         <v>15</v>
@@ -25708,7 +25582,7 @@
       <c r="BL74" s="12"/>
       <c r="BM74" s="12"/>
       <c r="BN74" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BO74" s="10">
         <v>3</v>
@@ -25722,7 +25596,7 @@
       <c r="BT74" s="12"/>
       <c r="BU74" s="12"/>
       <c r="BV74" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="BW74" s="12"/>
     </row>
@@ -25731,7 +25605,7 @@
         <v>24</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C75" s="10">
         <v>2017</v>
@@ -25760,7 +25634,7 @@
         <v>4</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N75" s="10">
         <v>4</v>
@@ -25769,7 +25643,7 @@
         <v>4</v>
       </c>
       <c r="P75" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q75" s="10">
         <v>2</v>
@@ -25782,7 +25656,7 @@
         <v>5</v>
       </c>
       <c r="U75" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="V75" s="10">
         <v>2</v>
@@ -25811,22 +25685,22 @@
         <v>1</v>
       </c>
       <c r="AF75" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AG75" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AH75" s="11" t="s">
         <v>221</v>
       </c>
       <c r="AI75" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AJ75" s="10">
         <v>2</v>
       </c>
       <c r="AK75" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AL75" s="10">
         <v>15</v>
@@ -25889,7 +25763,7 @@
       <c r="BL75" s="12"/>
       <c r="BM75" s="12"/>
       <c r="BN75" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BO75" s="10">
         <v>3</v>
@@ -25910,7 +25784,7 @@
         <v>25</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C76" s="10">
         <v>2015</v>
@@ -25939,7 +25813,7 @@
         <v>3</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N76" s="10">
         <v>2</v>
@@ -25959,7 +25833,7 @@
         <v>5</v>
       </c>
       <c r="U76" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="V76" s="10">
         <v>1</v>
@@ -25988,10 +25862,10 @@
         <v>1</v>
       </c>
       <c r="AF76" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AG76" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AH76" s="11" t="s">
         <v>120</v>
@@ -26064,7 +25938,7 @@
       <c r="BL76" s="12"/>
       <c r="BM76" s="12"/>
       <c r="BN76" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="BO76" s="10">
         <v>3</v>
@@ -26085,7 +25959,7 @@
         <v>25</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C77" s="10">
         <v>2015</v>
@@ -26114,7 +25988,7 @@
         <v>3</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N77" s="10">
         <v>2</v>
@@ -26134,7 +26008,7 @@
         <v>5</v>
       </c>
       <c r="U77" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="V77" s="10">
         <v>1</v>
@@ -26163,10 +26037,10 @@
         <v>1</v>
       </c>
       <c r="AF77" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AG77" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AH77" s="11" t="s">
         <v>84</v>
@@ -26239,7 +26113,7 @@
       <c r="BL77" s="12"/>
       <c r="BM77" s="12"/>
       <c r="BN77" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="BO77" s="10">
         <v>3</v>
@@ -26260,7 +26134,7 @@
         <v>25</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C78" s="10">
         <v>2015</v>
@@ -26289,7 +26163,7 @@
         <v>3</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N78" s="10">
         <v>2</v>
@@ -26309,7 +26183,7 @@
         <v>5</v>
       </c>
       <c r="U78" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="V78" s="10">
         <v>1</v>
@@ -26338,16 +26212,16 @@
         <v>1</v>
       </c>
       <c r="AF78" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AG78" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AH78" s="11" t="s">
         <v>120</v>
       </c>
       <c r="AI78" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AJ78" s="10">
         <v>1</v>
@@ -26416,7 +26290,7 @@
       <c r="BL78" s="12"/>
       <c r="BM78" s="12"/>
       <c r="BN78" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="BO78" s="10">
         <v>3</v>
@@ -26437,7 +26311,7 @@
         <v>25</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C79" s="10">
         <v>2015</v>
@@ -26466,7 +26340,7 @@
         <v>3</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N79" s="10">
         <v>2</v>
@@ -26486,7 +26360,7 @@
         <v>5</v>
       </c>
       <c r="U79" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="V79" s="10">
         <v>1</v>
@@ -26515,22 +26389,22 @@
         <v>1</v>
       </c>
       <c r="AF79" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AG79" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AH79" s="11" t="s">
         <v>120</v>
       </c>
       <c r="AI79" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AJ79" s="10">
         <v>1</v>
       </c>
       <c r="AK79" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AL79" s="10">
         <v>8</v>
@@ -26593,7 +26467,7 @@
       <c r="BL79" s="12"/>
       <c r="BM79" s="12"/>
       <c r="BN79" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="BO79" s="10">
         <v>3</v>
@@ -26614,7 +26488,7 @@
         <v>25</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C80" s="10">
         <v>2015</v>
@@ -26643,7 +26517,7 @@
         <v>3</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N80" s="10">
         <v>2</v>
@@ -26663,7 +26537,7 @@
         <v>5</v>
       </c>
       <c r="U80" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="V80" s="10">
         <v>1</v>
@@ -26692,16 +26566,16 @@
         <v>1</v>
       </c>
       <c r="AF80" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AG80" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AH80" s="11" t="s">
         <v>120</v>
       </c>
       <c r="AI80" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AJ80" s="10">
         <v>1</v>
@@ -26770,7 +26644,7 @@
       <c r="BL80" s="12"/>
       <c r="BM80" s="12"/>
       <c r="BN80" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="BO80" s="10">
         <v>3</v>
@@ -26791,7 +26665,7 @@
         <v>25</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C81" s="10">
         <v>2015</v>
@@ -26820,7 +26694,7 @@
         <v>3</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N81" s="10">
         <v>2</v>
@@ -26840,7 +26714,7 @@
         <v>5</v>
       </c>
       <c r="U81" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="V81" s="10">
         <v>1</v>
@@ -26869,22 +26743,22 @@
         <v>1</v>
       </c>
       <c r="AF81" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AG81" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AH81" s="11" t="s">
         <v>120</v>
       </c>
       <c r="AI81" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ81" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK81" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="AJ81" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK81" s="11" t="s">
-        <v>376</v>
       </c>
       <c r="AL81" s="10">
         <v>8</v>
@@ -26947,7 +26821,7 @@
       <c r="BL81" s="12"/>
       <c r="BM81" s="12"/>
       <c r="BN81" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="BO81" s="10">
         <v>3</v>
@@ -26968,7 +26842,7 @@
         <v>26</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C82" s="10">
         <v>2009</v>
@@ -27015,7 +26889,7 @@
         <v>2</v>
       </c>
       <c r="U82" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="V82" s="10">
         <v>2</v>
@@ -27027,7 +26901,7 @@
         <v>5</v>
       </c>
       <c r="Y82" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Z82" s="10">
         <v>2</v>
@@ -27046,22 +26920,22 @@
         <v>1</v>
       </c>
       <c r="AF82" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AG82" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AH82" s="11" t="s">
         <v>120</v>
       </c>
       <c r="AI82" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AJ82" s="10">
         <v>1</v>
       </c>
       <c r="AK82" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AL82" s="10">
         <v>12</v>
@@ -27124,7 +26998,7 @@
       <c r="BL82" s="12"/>
       <c r="BM82" s="12"/>
       <c r="BN82" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="BO82" s="10">
         <v>3</v>
@@ -27145,7 +27019,7 @@
         <v>26</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C83" s="10">
         <v>2009</v>
@@ -27192,7 +27066,7 @@
         <v>2</v>
       </c>
       <c r="U83" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="V83" s="10">
         <v>2</v>
@@ -27204,7 +27078,7 @@
         <v>5</v>
       </c>
       <c r="Y83" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Z83" s="10">
         <v>2</v>
@@ -27223,22 +27097,22 @@
         <v>1</v>
       </c>
       <c r="AF83" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AG83" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AH83" s="11" t="s">
         <v>221</v>
       </c>
       <c r="AI83" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AJ83" s="10">
         <v>2</v>
       </c>
       <c r="AK83" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL83" s="10">
         <v>12</v>
@@ -27301,7 +27175,7 @@
       <c r="BL83" s="12"/>
       <c r="BM83" s="12"/>
       <c r="BN83" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="BO83" s="10">
         <v>3</v>
@@ -27322,7 +27196,7 @@
         <v>26</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C84" s="10">
         <v>2009</v>
@@ -27369,7 +27243,7 @@
         <v>2</v>
       </c>
       <c r="U84" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="V84" s="10">
         <v>2</v>
@@ -27381,7 +27255,7 @@
         <v>5</v>
       </c>
       <c r="Y84" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Z84" s="10">
         <v>2</v>
@@ -27400,10 +27274,10 @@
         <v>1</v>
       </c>
       <c r="AF84" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AG84" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AH84" s="11" t="s">
         <v>120</v>
@@ -27413,7 +27287,7 @@
         <v>1</v>
       </c>
       <c r="AK84" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL84" s="10">
         <v>12</v>
@@ -27476,7 +27350,7 @@
       <c r="BL84" s="12"/>
       <c r="BM84" s="12"/>
       <c r="BN84" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="BO84" s="10">
         <v>3</v>
@@ -27497,7 +27371,7 @@
         <v>26</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C85" s="10">
         <v>2009</v>
@@ -27544,7 +27418,7 @@
         <v>2</v>
       </c>
       <c r="U85" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="V85" s="10">
         <v>2</v>
@@ -27556,7 +27430,7 @@
         <v>5</v>
       </c>
       <c r="Y85" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Z85" s="10">
         <v>2</v>
@@ -27575,10 +27449,10 @@
         <v>1</v>
       </c>
       <c r="AF85" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AG85" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AH85" s="11" t="s">
         <v>221</v>
@@ -27588,7 +27462,7 @@
         <v>2</v>
       </c>
       <c r="AK85" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AL85" s="10">
         <v>12</v>
@@ -27651,7 +27525,7 @@
       <c r="BL85" s="12"/>
       <c r="BM85" s="12"/>
       <c r="BN85" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="BO85" s="10">
         <v>3</v>
@@ -27672,7 +27546,7 @@
         <v>27</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C86" s="10">
         <v>2013</v>
@@ -27701,7 +27575,7 @@
         <v>3</v>
       </c>
       <c r="M86" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N86" s="10">
         <v>2</v>
@@ -27717,13 +27591,13 @@
         <v>3</v>
       </c>
       <c r="S86" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="T86" s="10">
         <v>5</v>
       </c>
       <c r="U86" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="V86" s="10">
         <v>1</v>
@@ -27752,16 +27626,16 @@
         <v>3</v>
       </c>
       <c r="AF86" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AG86" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AH86" s="11" t="s">
         <v>120</v>
       </c>
       <c r="AI86" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AJ86" s="10">
         <v>1</v>
@@ -27830,7 +27704,7 @@
       <c r="BL86" s="12"/>
       <c r="BM86" s="12"/>
       <c r="BN86" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="BO86" s="10">
         <v>3</v>
@@ -27851,7 +27725,7 @@
         <v>27</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C87" s="10">
         <v>2013</v>
@@ -27880,7 +27754,7 @@
         <v>3</v>
       </c>
       <c r="M87" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N87" s="10">
         <v>2</v>
@@ -27896,13 +27770,13 @@
         <v>3</v>
       </c>
       <c r="S87" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="T87" s="10">
         <v>5</v>
       </c>
       <c r="U87" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="V87" s="10">
         <v>1</v>
@@ -27931,10 +27805,10 @@
         <v>3</v>
       </c>
       <c r="AF87" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AG87" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AH87" s="11" t="s">
         <v>84</v>
@@ -28007,7 +27881,7 @@
       <c r="BL87" s="12"/>
       <c r="BM87" s="12"/>
       <c r="BN87" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="BO87" s="10">
         <v>3</v>
@@ -28028,7 +27902,7 @@
         <v>27</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C88" s="10">
         <v>2013</v>
@@ -28057,7 +27931,7 @@
         <v>3</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N88" s="10">
         <v>2</v>
@@ -28073,13 +27947,13 @@
         <v>3</v>
       </c>
       <c r="S88" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="T88" s="10">
         <v>5</v>
       </c>
       <c r="U88" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="V88" s="10">
         <v>1</v>
@@ -28111,7 +27985,7 @@
         <v>177</v>
       </c>
       <c r="AG88" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AH88" s="11" t="s">
         <v>84</v>
@@ -28184,7 +28058,7 @@
       <c r="BL88" s="12"/>
       <c r="BM88" s="12"/>
       <c r="BN88" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="BO88" s="10">
         <v>3</v>
@@ -28205,7 +28079,7 @@
         <v>27</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C89" s="10">
         <v>2013</v>
@@ -28234,7 +28108,7 @@
         <v>3</v>
       </c>
       <c r="M89" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N89" s="10">
         <v>2</v>
@@ -28250,13 +28124,13 @@
         <v>3</v>
       </c>
       <c r="S89" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="T89" s="10">
         <v>5</v>
       </c>
       <c r="U89" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="V89" s="10">
         <v>1</v>
@@ -28288,7 +28162,7 @@
         <v>177</v>
       </c>
       <c r="AG89" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AH89" s="11" t="s">
         <v>84</v>
@@ -28361,7 +28235,7 @@
       <c r="BL89" s="12"/>
       <c r="BM89" s="12"/>
       <c r="BN89" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="BO89" s="10">
         <v>3</v>
@@ -28382,7 +28256,7 @@
         <v>28</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C90" s="10">
         <v>2015</v>
@@ -28411,7 +28285,7 @@
         <v>3</v>
       </c>
       <c r="M90" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N90" s="10">
         <v>1</v>
@@ -28427,13 +28301,13 @@
         <v>3</v>
       </c>
       <c r="S90" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="T90" s="10">
         <v>5</v>
       </c>
       <c r="U90" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V90" s="10">
         <v>1</v>
@@ -28445,7 +28319,7 @@
         <v>10</v>
       </c>
       <c r="Y90" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Z90" s="10">
         <v>1</v>
@@ -28464,16 +28338,16 @@
         <v>3</v>
       </c>
       <c r="AF90" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AG90" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AH90" s="11" t="s">
         <v>120</v>
       </c>
       <c r="AI90" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AJ90" s="10">
         <v>1</v>
@@ -28542,7 +28416,7 @@
       <c r="BL90" s="12"/>
       <c r="BM90" s="12"/>
       <c r="BN90" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="BO90" s="10">
         <v>3</v>
@@ -28556,7 +28430,7 @@
       <c r="BT90" s="12"/>
       <c r="BU90" s="12"/>
       <c r="BV90" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="BW90" s="12"/>
     </row>
@@ -28565,7 +28439,7 @@
         <v>28</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C91" s="10">
         <v>2015</v>
@@ -28594,7 +28468,7 @@
         <v>3</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N91" s="10">
         <v>1</v>
@@ -28610,13 +28484,13 @@
         <v>3</v>
       </c>
       <c r="S91" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="T91" s="10">
         <v>5</v>
       </c>
       <c r="U91" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V91" s="10">
         <v>1</v>
@@ -28628,7 +28502,7 @@
         <v>10</v>
       </c>
       <c r="Y91" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Z91" s="10">
         <v>1</v>
@@ -28647,7 +28521,7 @@
         <v>2</v>
       </c>
       <c r="AF91" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AG91" s="11" t="s">
         <v>120</v>
@@ -28656,7 +28530,7 @@
         <v>120</v>
       </c>
       <c r="AI91" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AJ91" s="10">
         <v>1</v>
@@ -28725,7 +28599,7 @@
       <c r="BL91" s="12"/>
       <c r="BM91" s="12"/>
       <c r="BN91" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="BO91" s="10">
         <v>3</v>
@@ -28746,7 +28620,7 @@
         <v>28</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C92" s="10">
         <v>2015</v>
@@ -28775,7 +28649,7 @@
         <v>3</v>
       </c>
       <c r="M92" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N92" s="10">
         <v>1</v>
@@ -28791,13 +28665,13 @@
         <v>3</v>
       </c>
       <c r="S92" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="T92" s="10">
         <v>5</v>
       </c>
       <c r="U92" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V92" s="10">
         <v>1</v>
@@ -28809,7 +28683,7 @@
         <v>10</v>
       </c>
       <c r="Y92" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Z92" s="10">
         <v>1</v>
@@ -28828,10 +28702,10 @@
         <v>4</v>
       </c>
       <c r="AF92" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AG92" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AH92" s="11" t="s">
         <v>84</v>
@@ -28904,7 +28778,7 @@
       <c r="BL92" s="12"/>
       <c r="BM92" s="12"/>
       <c r="BN92" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="BO92" s="10">
         <v>3</v>
@@ -28925,7 +28799,7 @@
         <v>29</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C93" s="10">
         <v>2017</v>
@@ -28972,7 +28846,7 @@
         <v>2</v>
       </c>
       <c r="U93" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="V93" s="10">
         <v>2</v>
@@ -29001,20 +28875,20 @@
         <v>1</v>
       </c>
       <c r="AF93" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG93" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="AH93" s="11" t="s">
         <v>409</v>
-      </c>
-      <c r="AG93" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="AH93" s="11" t="s">
-        <v>411</v>
       </c>
       <c r="AI93" s="12"/>
       <c r="AJ93" s="10">
         <v>2</v>
       </c>
       <c r="AK93" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL93" s="10">
         <v>12</v>
@@ -29077,7 +28951,7 @@
       <c r="BL93" s="12"/>
       <c r="BM93" s="12"/>
       <c r="BN93" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="BO93" s="10">
         <v>3</v>
@@ -29098,7 +28972,7 @@
         <v>29</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C94" s="10">
         <v>2017</v>
@@ -29145,7 +29019,7 @@
         <v>2</v>
       </c>
       <c r="U94" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="V94" s="10">
         <v>2</v>
@@ -29174,10 +29048,10 @@
         <v>1</v>
       </c>
       <c r="AF94" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AG94" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AH94" s="11" t="s">
         <v>221</v>
@@ -29187,7 +29061,7 @@
         <v>2</v>
       </c>
       <c r="AK94" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AL94" s="10">
         <v>12</v>
@@ -29250,7 +29124,7 @@
       <c r="BL94" s="12"/>
       <c r="BM94" s="12"/>
       <c r="BN94" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="BO94" s="10">
         <v>3</v>
@@ -29266,189 +29140,164 @@
       <c r="BV94" s="12"/>
       <c r="BW94" s="12"/>
     </row>
-    <row r="95" spans="1:75" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="8">
+    <row r="95" spans="1:75" s="36" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="36">
         <v>30</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="C95" s="36">
+        <v>2014</v>
+      </c>
+      <c r="D95" s="36">
+        <v>94</v>
+      </c>
+      <c r="E95" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F95" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H95" s="36">
+        <v>2</v>
+      </c>
+      <c r="I95" s="36">
+        <v>5</v>
+      </c>
+      <c r="K95" s="36">
+        <v>4</v>
+      </c>
+      <c r="L95" s="36">
+        <v>3</v>
+      </c>
+      <c r="N95" s="36">
+        <v>4</v>
+      </c>
+      <c r="O95" s="36">
+        <v>3</v>
+      </c>
+      <c r="Q95" s="36">
+        <v>2</v>
+      </c>
+      <c r="R95" s="36">
+        <v>2</v>
+      </c>
+      <c r="T95" s="36">
+        <v>2</v>
+      </c>
+      <c r="V95" s="36">
+        <v>2</v>
+      </c>
+      <c r="W95" s="36">
+        <v>1</v>
+      </c>
+      <c r="X95" s="36">
+        <v>1</v>
+      </c>
+      <c r="Y95" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z95" s="36">
+        <v>2</v>
+      </c>
+      <c r="AB95" s="36">
+        <v>3</v>
+      </c>
+      <c r="AC95" s="36">
+        <v>2</v>
+      </c>
+      <c r="AD95" s="36">
+        <v>3</v>
+      </c>
+      <c r="AE95" s="36">
+        <v>3</v>
+      </c>
+      <c r="AF95" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="C95" s="10">
-        <v>2014</v>
-      </c>
-      <c r="D95" s="10">
-        <v>94</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G95" s="12"/>
-      <c r="H95" s="10">
-        <v>2</v>
-      </c>
-      <c r="I95" s="10">
-        <v>5</v>
-      </c>
-      <c r="J95" s="12"/>
-      <c r="K95" s="10">
+      <c r="AG95" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="AH95" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI95" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="AJ95" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK95" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="AL95" s="36">
         <v>4</v>
       </c>
-      <c r="L95" s="10">
-        <v>3</v>
-      </c>
-      <c r="M95" s="12"/>
-      <c r="N95" s="10">
+      <c r="AM95" s="36">
+        <v>49.86</v>
+      </c>
+      <c r="AO95" s="36">
+        <v>17</v>
+      </c>
+      <c r="AP95" s="36">
+        <v>8.5</v>
+      </c>
+      <c r="AS95" s="36">
         <v>4</v>
       </c>
-      <c r="O95" s="10">
-        <v>3</v>
-      </c>
-      <c r="P95" s="12"/>
-      <c r="Q95" s="10">
-        <v>2</v>
-      </c>
-      <c r="R95" s="10">
-        <v>2</v>
-      </c>
-      <c r="S95" s="12"/>
-      <c r="T95" s="10">
-        <v>2</v>
-      </c>
-      <c r="U95" s="12"/>
-      <c r="V95" s="10">
-        <v>2</v>
-      </c>
-      <c r="W95" s="10">
-        <v>1</v>
-      </c>
-      <c r="X95" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y95" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z95" s="10">
-        <v>2</v>
-      </c>
-      <c r="AA95" s="12"/>
-      <c r="AB95" s="10">
-        <v>3</v>
-      </c>
-      <c r="AC95" s="10">
-        <v>2</v>
-      </c>
-      <c r="AD95" s="10">
-        <v>3</v>
-      </c>
-      <c r="AE95" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF95" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="AG95" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="AH95" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI95" s="37" t="s">
+      <c r="AT95" s="36">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="AV95" s="36">
+        <v>22.42</v>
+      </c>
+      <c r="AW95" s="36">
+        <v>11.21</v>
+      </c>
+      <c r="AZ95" s="36">
+        <v>4</v>
+      </c>
+      <c r="BA95" s="36">
+        <v>77.290000000000006</v>
+      </c>
+      <c r="BC95" s="36">
+        <v>24.74</v>
+      </c>
+      <c r="BD95" s="36">
+        <v>12.37</v>
+      </c>
+      <c r="BG95" s="36">
+        <v>4</v>
+      </c>
+      <c r="BH95" s="36">
+        <v>62.22</v>
+      </c>
+      <c r="BJ95" s="36">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="BK95" s="36">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="BN95" s="36" t="s">
         <v>418</v>
       </c>
-      <c r="AJ95" s="36">
-        <v>1</v>
-      </c>
-      <c r="AK95" s="37" t="s">
+      <c r="BO95" s="36">
+        <v>3</v>
+      </c>
+      <c r="BQ95" s="36">
+        <v>3</v>
+      </c>
+      <c r="BV95" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="AL95" s="10">
-        <v>4</v>
-      </c>
-      <c r="AM95" s="10">
-        <v>49.86</v>
-      </c>
-      <c r="AN95" s="12"/>
-      <c r="AO95" s="10">
-        <v>17</v>
-      </c>
-      <c r="AP95" s="10">
-        <v>8.5</v>
-      </c>
-      <c r="AQ95" s="12"/>
-      <c r="AR95" s="12"/>
-      <c r="AS95" s="10">
-        <v>4</v>
-      </c>
-      <c r="AT95" s="10">
-        <v>69.569999999999993</v>
-      </c>
-      <c r="AU95" s="12"/>
-      <c r="AV95" s="10">
-        <v>22.42</v>
-      </c>
-      <c r="AW95" s="10">
-        <v>11.21</v>
-      </c>
-      <c r="AX95" s="12"/>
-      <c r="AY95" s="12"/>
-      <c r="AZ95" s="10">
-        <v>4</v>
-      </c>
-      <c r="BA95" s="10">
-        <v>77.290000000000006</v>
-      </c>
-      <c r="BB95" s="12"/>
-      <c r="BC95" s="10">
-        <v>24.74</v>
-      </c>
-      <c r="BD95" s="10">
-        <v>12.37</v>
-      </c>
-      <c r="BE95" s="12"/>
-      <c r="BF95" s="12"/>
-      <c r="BG95" s="10">
-        <v>4</v>
-      </c>
-      <c r="BH95" s="10">
-        <v>62.22</v>
-      </c>
-      <c r="BI95" s="12"/>
-      <c r="BJ95" s="10">
-        <v>18.559999999999999</v>
-      </c>
-      <c r="BK95" s="10">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="BL95" s="12"/>
-      <c r="BM95" s="12"/>
-      <c r="BN95" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="BO95" s="10">
-        <v>3</v>
-      </c>
-      <c r="BP95" s="12"/>
-      <c r="BQ95" s="10">
-        <v>3</v>
-      </c>
-      <c r="BR95" s="12"/>
-      <c r="BS95" s="12"/>
-      <c r="BT95" s="12"/>
-      <c r="BU95" s="12"/>
-      <c r="BV95" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="BW95" s="12"/>
     </row>
     <row r="96" spans="1:75" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="8">
         <v>31</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C96" s="10">
         <v>2009</v>
@@ -29460,7 +29309,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G96" s="12"/>
       <c r="H96" s="10">
@@ -29477,7 +29326,7 @@
         <v>3</v>
       </c>
       <c r="M96" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N96" s="10">
         <v>2</v>
@@ -29493,13 +29342,13 @@
         <v>2</v>
       </c>
       <c r="S96" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T96" s="10">
         <v>4</v>
       </c>
       <c r="U96" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="V96" s="10">
         <v>1</v>
@@ -29541,7 +29390,7 @@
         <v>2</v>
       </c>
       <c r="AK96" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AL96" s="10">
         <v>13</v>
@@ -29604,7 +29453,7 @@
       <c r="BL96" s="12"/>
       <c r="BM96" s="12"/>
       <c r="BN96" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="BO96" s="10">
         <v>3</v>
@@ -29615,203 +29464,184 @@
       </c>
       <c r="BR96" s="12"/>
       <c r="BS96" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="BT96" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="BU96" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="BT96" s="11" t="s">
+      <c r="BV96" s="11" t="s">
         <v>428</v>
-      </c>
-      <c r="BU96" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="BV96" s="11" t="s">
-        <v>430</v>
       </c>
       <c r="BW96" s="12"/>
     </row>
-    <row r="97" spans="1:75" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="8">
+    <row r="97" spans="1:73" s="36" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="36">
         <v>31</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="C97" s="36">
+        <v>2009</v>
+      </c>
+      <c r="D97" s="36">
+        <v>96</v>
+      </c>
+      <c r="E97" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F97" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="H97" s="36">
+        <v>2</v>
+      </c>
+      <c r="I97" s="36">
+        <v>6</v>
+      </c>
+      <c r="K97" s="36">
+        <v>4</v>
+      </c>
+      <c r="L97" s="36">
+        <v>3</v>
+      </c>
+      <c r="M97" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="N97" s="36">
+        <v>2</v>
+      </c>
+      <c r="O97" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q97" s="36">
+        <v>2</v>
+      </c>
+      <c r="R97" s="36">
+        <v>2</v>
+      </c>
+      <c r="S97" s="36" t="s">
         <v>422</v>
       </c>
-      <c r="C97" s="10">
-        <v>2009</v>
-      </c>
-      <c r="D97" s="10">
-        <v>96</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="G97" s="12"/>
-      <c r="H97" s="10">
-        <v>2</v>
-      </c>
-      <c r="I97" s="10">
+      <c r="T97" s="36">
+        <v>4</v>
+      </c>
+      <c r="U97" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="V97" s="36">
+        <v>1</v>
+      </c>
+      <c r="W97" s="36">
+        <v>3</v>
+      </c>
+      <c r="X97" s="36">
         <v>6</v>
       </c>
-      <c r="J97" s="12"/>
-      <c r="K97" s="10">
-        <v>4</v>
-      </c>
-      <c r="L97" s="10">
-        <v>3</v>
-      </c>
-      <c r="M97" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="N97" s="10">
-        <v>2</v>
-      </c>
-      <c r="O97" s="10">
-        <v>2</v>
-      </c>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="10">
-        <v>2</v>
-      </c>
-      <c r="R97" s="10">
-        <v>2</v>
-      </c>
-      <c r="S97" s="11" t="s">
+      <c r="Z97" s="36">
+        <v>2</v>
+      </c>
+      <c r="AB97" s="36">
+        <v>1</v>
+      </c>
+      <c r="AC97" s="36">
+        <v>2</v>
+      </c>
+      <c r="AD97" s="36">
+        <v>3</v>
+      </c>
+      <c r="AE97" s="36">
+        <v>3</v>
+      </c>
+      <c r="AF97" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="AG97" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH97" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI97" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="AJ97" s="36">
+        <v>2</v>
+      </c>
+      <c r="AK97" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="AL97" s="36">
+        <v>13</v>
+      </c>
+      <c r="AM97" s="36">
+        <v>15.24</v>
+      </c>
+      <c r="AO97" s="36">
+        <v>3.6416067879999998</v>
+      </c>
+      <c r="AP97" s="36">
+        <v>1.01</v>
+      </c>
+      <c r="AS97" s="36">
+        <v>11</v>
+      </c>
+      <c r="AT97" s="36">
+        <v>10.86</v>
+      </c>
+      <c r="AV97" s="36">
+        <v>3.3497910380000002</v>
+      </c>
+      <c r="AW97" s="36">
+        <v>1.01</v>
+      </c>
+      <c r="AZ97" s="36">
+        <v>11</v>
+      </c>
+      <c r="BA97" s="36">
+        <v>11.54</v>
+      </c>
+      <c r="BC97" s="36">
+        <v>4.178947236</v>
+      </c>
+      <c r="BD97" s="36">
+        <v>1.26</v>
+      </c>
+      <c r="BG97" s="36">
+        <v>10</v>
+      </c>
+      <c r="BH97" s="36">
+        <v>10.69</v>
+      </c>
+      <c r="BJ97" s="36">
+        <v>4.016092628</v>
+      </c>
+      <c r="BK97" s="36">
+        <v>1.27</v>
+      </c>
+      <c r="BN97" s="36" t="s">
         <v>424</v>
       </c>
-      <c r="T97" s="10">
-        <v>4</v>
-      </c>
-      <c r="U97" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="V97" s="10">
-        <v>1</v>
-      </c>
-      <c r="W97" s="10">
-        <v>3</v>
-      </c>
-      <c r="X97" s="10">
-        <v>6</v>
-      </c>
-      <c r="Y97" s="12"/>
-      <c r="Z97" s="10">
-        <v>2</v>
-      </c>
-      <c r="AA97" s="12"/>
-      <c r="AB97" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC97" s="10">
-        <v>2</v>
-      </c>
-      <c r="AD97" s="10">
-        <v>3</v>
-      </c>
-      <c r="AE97" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF97" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="AG97" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="AH97" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI97" s="37" t="s">
-        <v>432</v>
-      </c>
-      <c r="AJ97" s="36">
-        <v>2</v>
-      </c>
-      <c r="AK97" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="AL97" s="10">
-        <v>13</v>
-      </c>
-      <c r="AM97" s="10">
-        <v>15.24</v>
-      </c>
-      <c r="AN97" s="12"/>
-      <c r="AO97" s="10">
-        <v>3.6416067879999998</v>
-      </c>
-      <c r="AP97" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="AQ97" s="12"/>
-      <c r="AR97" s="12"/>
-      <c r="AS97" s="10">
-        <v>11</v>
-      </c>
-      <c r="AT97" s="10">
-        <v>10.86</v>
-      </c>
-      <c r="AU97" s="12"/>
-      <c r="AV97" s="10">
-        <v>3.3497910380000002</v>
-      </c>
-      <c r="AW97" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="AX97" s="12"/>
-      <c r="AY97" s="12"/>
-      <c r="AZ97" s="10">
-        <v>11</v>
-      </c>
-      <c r="BA97" s="10">
-        <v>11.54</v>
-      </c>
-      <c r="BB97" s="12"/>
-      <c r="BC97" s="10">
-        <v>4.178947236</v>
-      </c>
-      <c r="BD97" s="10">
-        <v>1.26</v>
-      </c>
-      <c r="BE97" s="12"/>
-      <c r="BF97" s="12"/>
-      <c r="BG97" s="10">
-        <v>10</v>
-      </c>
-      <c r="BH97" s="10">
-        <v>10.69</v>
-      </c>
-      <c r="BI97" s="12"/>
-      <c r="BJ97" s="10">
-        <v>4.016092628</v>
-      </c>
-      <c r="BK97" s="10">
-        <v>1.27</v>
-      </c>
-      <c r="BL97" s="12"/>
-      <c r="BM97" s="12"/>
-      <c r="BN97" s="11" t="s">
+      <c r="BO97" s="36">
+        <v>3</v>
+      </c>
+      <c r="BQ97" s="36">
+        <v>3</v>
+      </c>
+      <c r="BT97" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="BO97" s="10">
-        <v>3</v>
-      </c>
-      <c r="BP97" s="12"/>
-      <c r="BQ97" s="10">
-        <v>3</v>
-      </c>
-      <c r="BR97" s="12"/>
-      <c r="BS97" s="12"/>
-      <c r="BT97" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="BU97" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="BV97" s="12"/>
-      <c r="BW97" s="12"/>
+      <c r="BU97" s="36" t="s">
+        <v>427</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BW97">
+    <sortCondition ref="D2:D97"/>
+  </sortState>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -29849,10 +29679,10 @@
   <sheetData>
     <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29863,7 +29693,7 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -29874,7 +29704,7 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -29885,7 +29715,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -29896,7 +29726,7 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -29907,7 +29737,7 @@
         <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -29918,7 +29748,7 @@
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -29929,7 +29759,7 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -29940,7 +29770,7 @@
         <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -29951,7 +29781,7 @@
         <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -29962,7 +29792,7 @@
         <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -29973,7 +29803,7 @@
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -29984,7 +29814,7 @@
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -29995,7 +29825,7 @@
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30006,7 +29836,7 @@
         <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30017,7 +29847,7 @@
         <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30028,7 +29858,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30039,7 +29869,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30050,7 +29880,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30061,7 +29891,7 @@
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30072,7 +29902,7 @@
         <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30083,7 +29913,7 @@
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30094,7 +29924,7 @@
         <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30105,7 +29935,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30116,7 +29946,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30127,7 +29957,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30138,30 +29968,30 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="23" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B30" s="21"/>
     </row>
     <row r="31" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B31" s="21"/>
     </row>
     <row r="32" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B32" s="21"/>
     </row>
     <row r="33" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B33" s="25">
         <v>96</v>
@@ -30169,24 +29999,24 @@
     </row>
     <row r="36" spans="1:13" ht="56" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
       <c r="L36" s="16" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M36" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="140" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>111</v>
@@ -30195,10 +30025,10 @@
         <v>75</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L37" s="18">
         <v>1</v>
@@ -30220,7 +30050,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L38" s="23">
         <v>2</v>
@@ -30244,7 +30074,7 @@
         <v>83</v>
       </c>
       <c r="H39" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L39" s="23">
         <v>3</v>
@@ -30266,7 +30096,7 @@
         <v>6</v>
       </c>
       <c r="H40" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L40" s="23">
         <v>4</v>
@@ -30288,23 +30118,23 @@
         <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M41" s="21"/>
     </row>
     <row r="42" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A42" s="23" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B42" s="28"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
       <c r="E42" s="21"/>
       <c r="L42" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M42" s="25">
         <v>96</v>
@@ -30312,7 +30142,7 @@
     </row>
     <row r="43" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B43" s="29">
         <v>8</v>
@@ -30327,10 +30157,10 @@
     </row>
     <row r="46" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
@@ -30340,7 +30170,7 @@
     </row>
     <row r="47" spans="1:13" ht="98" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B47" s="13">
         <v>1</v>
@@ -30355,10 +30185,10 @@
         <v>4</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
@@ -30418,7 +30248,7 @@
     </row>
     <row r="51" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="23" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B51" s="28"/>
       <c r="C51" s="34"/>
@@ -30429,7 +30259,7 @@
     </row>
     <row r="52" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B52" s="29">
         <v>73</v>
